--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -259,10 +259,16 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2001021,2001022</t>
+    <t>2001021,2001022,2001008</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
+  </si>
+  <si>
+    <t>召唤怪物近战</t>
+  </si>
+  <si>
+    <t>召唤怪物远战</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2027,6 +2033,106 @@
     <row r="23" spans="10:10">
       <c r="J23" s="5" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:17">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1200101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>15011032</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24">
+        <v>10001</v>
+      </c>
+      <c r="I24">
+        <v>10001</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24">
+        <v>15003501</v>
+      </c>
+      <c r="Q24">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:17">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1200102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>15011033</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25">
+        <v>10001</v>
+      </c>
+      <c r="I25">
+        <v>10001</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25">
+        <v>15003501</v>
+      </c>
+      <c r="Q25">
+        <v>15003602</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16620" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2148,7 +2148,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2165,7 +2165,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16620" windowHeight="10845"/>
+    <workbookView windowWidth="17655" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2001021,2001022,2001008</t>
+    <t>2002101,2100105</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1253,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -259,7 +259,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100105</t>
+    <t>2002101,2100201</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17655" windowHeight="12015"/>
+    <workbookView windowWidth="19485" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100201</t>
+    <t>2002101,2100301</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1253,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -259,7 +259,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100301</t>
+    <t>2002101,2100305</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1253,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -259,7 +259,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100305</t>
+    <t>2002101,2100305,2001004</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="11445"/>
+    <workbookView windowWidth="13875" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>#</t>
   </si>
@@ -211,61 +211,67 @@
     <t>10003001</t>
   </si>
   <si>
+    <t>2002001</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>10003002</t>
+  </si>
+  <si>
+    <t>2002011,2002012</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>昆仑派掌门:叶须眉</t>
+  </si>
+  <si>
+    <t>他外表看起来令人称道，风度翩翩，举止得体，仿佛一位正派武林人士。然而，深入了解他的内心，才会发现他阴暗而狡诈的本性。他隐藏了邪恶的意图和自私的目的，利用自己的表面光鲜与权势地位，欺骗和欺压他人。</t>
+  </si>
+  <si>
+    <t>10003031</t>
+  </si>
+  <si>
+    <t>2003001,2003050,2003051,2003052</t>
+  </si>
+  <si>
+    <t>怪物1：技能,2002002</t>
+  </si>
+  <si>
+    <t>上官唯 的 技能   2001001,2001002,2001003,2001004,2001005,2001006</t>
+  </si>
+  <si>
+    <t>上官翎_npc_001</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>怪物1 的 技能 2002002</t>
+  </si>
+  <si>
+    <t>怪物2 的 技能 2002002</t>
+  </si>
+  <si>
+    <t>唐依_npc_001</t>
+  </si>
+  <si>
+    <t>2002101,2100403</t>
+  </si>
+  <si>
+    <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
+  </si>
+  <si>
+    <t>召唤怪物近战</t>
+  </si>
+  <si>
     <t>2002001,2002002</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>10003002</t>
-  </si>
-  <si>
-    <t>2002011,2002012</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>昆仑派掌门:叶须眉</t>
-  </si>
-  <si>
-    <t>他外表看起来令人称道，风度翩翩，举止得体，仿佛一位正派武林人士。然而，深入了解他的内心，才会发现他阴暗而狡诈的本性。他隐藏了邪恶的意图和自私的目的，利用自己的表面光鲜与权势地位，欺骗和欺压他人。</t>
-  </si>
-  <si>
-    <t>10003031</t>
-  </si>
-  <si>
-    <t>2003001,2003050,2003051,2003052</t>
-  </si>
-  <si>
-    <t>上官唯 的 技能   2001001,2001002,2001003,2001004,2001005,2001006</t>
-  </si>
-  <si>
-    <t>上官翎_npc_001</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>怪物1 的 技能 2002002</t>
-  </si>
-  <si>
-    <t>怪物2 的 技能 2002002</t>
-  </si>
-  <si>
-    <t>唐依_npc_001</t>
-  </si>
-  <si>
-    <t>2002101,2100305,2001004</t>
-  </si>
-  <si>
-    <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
-  </si>
-  <si>
-    <t>召唤怪物近战</t>
   </si>
   <si>
     <t>召唤怪物远战</t>
@@ -1253,7 +1259,7 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -1913,11 +1919,13 @@
       </c>
     </row>
     <row r="17" ht="12" customHeight="1" spans="10:10">
-      <c r="J17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1928,10 +1936,10 @@
         <v>1200001</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1958,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N19" t="s">
         <v>40</v>
@@ -1972,12 +1980,12 @@
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1988,10 +1996,10 @@
         <v>1200021</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2009,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2018,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N22" t="s">
         <v>40</v>
@@ -2032,7 +2040,7 @@
     </row>
     <row r="23" spans="10:10">
       <c r="J23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:17">
@@ -2043,7 +2051,7 @@
         <v>1200101</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -2064,7 +2072,7 @@
         <v>10001</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2093,7 +2101,7 @@
         <v>1200102</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>62</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13875" windowHeight="12255"/>
+    <workbookView windowWidth="14970" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100403</t>
+    <t>2002101,2100405</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1259,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="9420"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100405</t>
+    <t>2002101,2100501,2001024</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1259,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="13635" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100501,2001024</t>
+    <t>2002101,2100601</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1259,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13635" windowHeight="11865"/>
+    <workbookView windowWidth="14910" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,10 +262,10 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100601</t>
-  </si>
-  <si>
-    <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
+    <t>2002101,2100701</t>
+  </si>
+  <si>
+    <t>唐依技能 : 2001021,</t>
   </si>
   <si>
     <t>召唤怪物近战</t>
@@ -1259,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -262,7 +262,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100701</t>
+    <t>2002101,2100701,2100702,2100703</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,</t>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -262,7 +262,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100701,2100702,2100703</t>
+    <t>2002101</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,</t>
@@ -1259,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14910" windowHeight="12000"/>
+    <workbookView windowWidth="14790" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,10 +262,10 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101</t>
-  </si>
-  <si>
-    <t>唐依技能 : 2001021,</t>
+    <t>2002101,2100801,2100901,2201101,2201201</t>
+  </si>
+  <si>
+    <t>唐依技能 : 2001021,2100702,2100703,2001003,2001025</t>
   </si>
   <si>
     <t>召唤怪物近战</t>
@@ -1259,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14790" windowHeight="12105"/>
+    <workbookView windowWidth="18420" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>94067</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+绿0
+蓝1
+紫2
+橙3
+红4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -64,6 +100,9 @@
     <t>level</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>star</t>
   </si>
   <si>
@@ -122,6 +161,9 @@
   </si>
   <si>
     <t>等级</t>
+  </si>
+  <si>
+    <t>品质</t>
   </si>
   <si>
     <t>星级</t>
@@ -287,7 +329,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +480,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1257,10 +1310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1274,12 +1327,13 @@
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="47.125" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="11.625" customWidth="1"/>
-    <col min="17" max="17" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="17" max="17" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,114 +1385,123 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
       <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:17">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:18">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1446,10 +1509,10 @@
         <v>1000001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1467,19 +1530,19 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4">
         <v>15003501</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15003603</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1487,10 +1550,10 @@
         <v>1000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1508,19 +1571,19 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5">
         <v>15003503</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>15003601</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1528,10 +1591,10 @@
         <v>1000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1549,19 +1612,19 @@
         <v>2</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6">
         <v>15003503</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>15003602</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:17">
+    <row r="7" ht="15" customHeight="1" spans="1:18">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1569,10 +1632,10 @@
         <v>1000004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1590,19 +1653,19 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7">
         <v>15003503</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>15003603</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1610,10 +1673,10 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1631,19 +1694,19 @@
         <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8">
         <v>15003503</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>15003601</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1651,10 +1714,10 @@
         <v>1000006</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1672,27 +1735,27 @@
         <v>2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9">
         <v>15003503</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>15003602</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="B11">
         <v>1000101</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1710,27 +1773,27 @@
         <v>2</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11">
         <v>15003501</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>15003601</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="B12">
         <v>1000102</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1748,24 +1811,24 @@
         <v>2</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12">
         <v>15003503</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>15003602</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1773,10 +1836,10 @@
         <v>1000201</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1785,7 +1848,7 @@
         <v>15011032</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <v>10001</v>
@@ -1794,28 +1857,28 @@
         <v>10001</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>61</v>
+      <c r="M14">
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14">
+        <v>63</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
         <v>15003501</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>15003601</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1823,10 +1886,10 @@
         <v>1000202</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1835,7 +1898,7 @@
         <v>15011033</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -1844,28 +1907,28 @@
         <v>10001</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>65</v>
+      <c r="M15">
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15">
         <v>15003501</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>15003602</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1873,10 +1936,10 @@
         <v>1000210</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1885,7 +1948,7 @@
         <v>15011034</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -1894,41 +1957,41 @@
         <v>10001</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>65</v>
+      <c r="M16">
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
       </c>
       <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>15003501</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>15003601</v>
       </c>
     </row>
     <row r="17" ht="12" customHeight="1" spans="10:10">
       <c r="J17" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1936,10 +1999,10 @@
         <v>1200001</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1957,38 +2020,38 @@
         <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>73</v>
+      <c r="M19">
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19">
+        <v>75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19">
         <v>15003501</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>15003601</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1996,10 +2059,10 @@
         <v>1200021</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2017,33 +2080,33 @@
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>73</v>
+      <c r="M22">
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22">
         <v>15003503</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>15003603</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:18">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2051,10 +2114,10 @@
         <v>1200101</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2063,7 +2126,7 @@
         <v>15011032</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>10001</v>
@@ -2072,28 +2135,28 @@
         <v>10001</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>61</v>
+      <c r="M24">
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24">
+        <v>63</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24">
         <v>15003501</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>15003601</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:17">
+    <row r="25" customFormat="1" spans="1:18">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2101,10 +2164,10 @@
         <v>1200102</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2113,7 +2176,7 @@
         <v>15011033</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H25">
         <v>10001</v>
@@ -2122,24 +2185,24 @@
         <v>10001</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>65</v>
+      <c r="M25">
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25">
+        <v>67</v>
+      </c>
+      <c r="O25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25">
         <v>15003501</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>15003602</v>
       </c>
     </row>
@@ -2147,6 +2210,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18420" windowHeight="12105"/>
+    <workbookView windowWidth="13740" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1312,8 +1312,8 @@
   <sheetPr/>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2132,7 +2132,7 @@
         <v>10001</v>
       </c>
       <c r="I24">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>82</v>
@@ -2182,7 +2182,7 @@
         <v>10001</v>
       </c>
       <c r="I25">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>66</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13740" windowHeight="10395"/>
+    <workbookView windowWidth="19035" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2100801,2100901,2201101,2201201</t>
+    <t>2002101,2003201,2003301</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2100702,2100703,2001003,2001025</t>
@@ -1312,8 +1312,8 @@
   <sheetPr/>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="10395"/>
+    <workbookView windowWidth="18225" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>94067</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -97,6 +97,9 @@
     <t>skillIds</t>
   </si>
   <si>
+    <t>ultimateSkillId</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>技能id列表(这个会换成技能模板)</t>
   </si>
   <si>
+    <t>大招技能配置id</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
@@ -304,10 +310,13 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2003201,2003301</t>
-  </si>
-  <si>
-    <t>唐依技能 : 2001021,2100702,2100703,2001003,2001025</t>
+    <t>2002101,2003201,2003401,2003501</t>
+  </si>
+  <si>
+    <t>2003301</t>
+  </si>
+  <si>
+    <t>唐依技能 : 2001021,2100702,2100703,2001003</t>
   </si>
   <si>
     <t>召唤怪物近战</t>
@@ -1310,10 +1319,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1327,13 +1336,14 @@
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="47.125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="17" max="17" width="11.625" customWidth="1"/>
-    <col min="18" max="18" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="19" max="19" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,120 +1398,129 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
       <c r="R2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:18">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:19">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
         <v>31</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1509,10 +1528,10 @@
         <v>1000001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1530,19 +1549,20 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4">
+        <v>43</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4">
         <v>15003501</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>15003603</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1550,10 +1570,10 @@
         <v>1000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1571,19 +1591,20 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5">
+        <v>47</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5">
         <v>15003503</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>15003601</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1591,10 +1612,10 @@
         <v>1000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1612,19 +1633,20 @@
         <v>2</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6">
         <v>15003503</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>15003602</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:18">
+    <row r="7" ht="15" customHeight="1" spans="1:19">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1632,10 +1654,10 @@
         <v>1000004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1653,19 +1675,20 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7">
+        <v>47</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7">
         <v>15003503</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>15003603</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1673,10 +1696,10 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1694,19 +1717,20 @@
         <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8">
+        <v>47</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8">
         <v>15003503</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>15003601</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1714,10 +1738,10 @@
         <v>1000006</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1735,27 +1759,28 @@
         <v>2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9">
+        <v>47</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9">
         <v>15003503</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>15003602</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>1000101</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1773,27 +1798,28 @@
         <v>2</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11">
+        <v>47</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11">
         <v>15003501</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>15003601</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>1000102</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1811,24 +1837,26 @@
         <v>2</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12">
+        <v>47</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12">
         <v>15003503</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>15003602</v>
       </c>
     </row>
-    <row r="13" spans="10:10">
+    <row r="13" spans="10:11">
       <c r="J13" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>61</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1836,10 +1864,10 @@
         <v>1000201</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1848,7 +1876,7 @@
         <v>15011032</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H14">
         <v>10001</v>
@@ -1857,28 +1885,29 @@
         <v>10001</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14">
+        <v>65</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14">
         <v>15003501</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>15003601</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1886,10 +1915,10 @@
         <v>1000202</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1898,7 +1927,7 @@
         <v>15011033</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -1907,28 +1936,29 @@
         <v>10001</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15">
+        <v>69</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15">
         <v>15003501</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>15003602</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1936,10 +1966,10 @@
         <v>1000210</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1948,7 +1978,7 @@
         <v>15011034</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -1957,41 +1987,44 @@
         <v>10001</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
       </c>
       <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
         <v>15003501</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>15003601</v>
       </c>
     </row>
-    <row r="17" ht="12" customHeight="1" spans="10:10">
+    <row r="17" ht="12" customHeight="1" spans="10:11">
       <c r="J17" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
+        <v>74</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="10:11">
       <c r="J18" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>75</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1999,10 +2032,10 @@
         <v>1200001</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2020,38 +2053,39 @@
         <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19">
         <v>15003501</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>15003601</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2059,10 +2093,10 @@
         <v>1200021</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2080,33 +2114,37 @@
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q22">
+        <v>77</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22">
         <v>15003503</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>15003603</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
+    <row r="23" spans="10:11">
       <c r="J23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:18">
+        <v>83</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:19">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2114,10 +2152,10 @@
         <v>1200101</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2126,7 +2164,7 @@
         <v>15011032</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H24">
         <v>10001</v>
@@ -2135,28 +2173,29 @@
         <v>101</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24">
+        <v>65</v>
+      </c>
+      <c r="P24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24">
         <v>15003501</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>15003601</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:18">
+    <row r="25" customFormat="1" spans="1:19">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2164,10 +2203,10 @@
         <v>1200102</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2176,7 +2215,7 @@
         <v>15011033</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H25">
         <v>10001</v>
@@ -2185,24 +2224,25 @@
         <v>101</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q25">
+        <v>69</v>
+      </c>
+      <c r="P25" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25">
         <v>15003501</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>15003602</v>
       </c>
     </row>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="10395"/>
+    <workbookView windowWidth="11160" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2003201,2003401,2003501</t>
+    <t>2002101,2003201</t>
   </si>
   <si>
     <t>2003301</t>
@@ -491,12 +491,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1321,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11160" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,12 +491,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1321,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2260,7 +2260,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2277,7 +2277,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -259,7 +259,7 @@
     <t>10003001</t>
   </si>
   <si>
-    <t>2002001</t>
+    <t>2201101</t>
   </si>
   <si>
     <t>1,1</t>
@@ -271,61 +271,64 @@
     <t>10003002</t>
   </si>
   <si>
+    <t>2202101,2202201</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>昆仑派掌门:叶须眉</t>
+  </si>
+  <si>
+    <t>他外表看起来令人称道，风度翩翩，举止得体，仿佛一位正派武林人士。然而，深入了解他的内心，才会发现他阴暗而狡诈的本性。他隐藏了邪恶的意图和自私的目的，利用自己的表面光鲜与权势地位，欺骗和欺压他人。</t>
+  </si>
+  <si>
+    <t>10003031</t>
+  </si>
+  <si>
+    <t>2003001,2003050,2003051,2003052</t>
+  </si>
+  <si>
+    <t>怪物1：技能,2002002</t>
+  </si>
+  <si>
+    <t>上官唯 的 技能   2001001,2001002,2001003,2001004,2001005,2001006</t>
+  </si>
+  <si>
+    <t>上官翎_npc_001</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>怪物1 的 技能 2002002</t>
+  </si>
+  <si>
+    <t>怪物2 的 技能 2002002</t>
+  </si>
+  <si>
+    <t>唐依_npc_001</t>
+  </si>
+  <si>
+    <t>2002101,2003201</t>
+  </si>
+  <si>
+    <t>2003301</t>
+  </si>
+  <si>
+    <t>唐依技能 : 2001021,2100702,2100703,2001003</t>
+  </si>
+  <si>
+    <t>召唤怪物近战</t>
+  </si>
+  <si>
+    <t>2002001,2002002</t>
+  </si>
+  <si>
+    <t>召唤怪物远战</t>
+  </si>
+  <si>
     <t>2002011,2002012</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>昆仑派掌门:叶须眉</t>
-  </si>
-  <si>
-    <t>他外表看起来令人称道，风度翩翩，举止得体，仿佛一位正派武林人士。然而，深入了解他的内心，才会发现他阴暗而狡诈的本性。他隐藏了邪恶的意图和自私的目的，利用自己的表面光鲜与权势地位，欺骗和欺压他人。</t>
-  </si>
-  <si>
-    <t>10003031</t>
-  </si>
-  <si>
-    <t>2003001,2003050,2003051,2003052</t>
-  </si>
-  <si>
-    <t>怪物1：技能,2002002</t>
-  </si>
-  <si>
-    <t>上官唯 的 技能   2001001,2001002,2001003,2001004,2001005,2001006</t>
-  </si>
-  <si>
-    <t>上官翎_npc_001</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>怪物1 的 技能 2002002</t>
-  </si>
-  <si>
-    <t>怪物2 的 技能 2002002</t>
-  </si>
-  <si>
-    <t>唐依_npc_001</t>
-  </si>
-  <si>
-    <t>2002101,2003201</t>
-  </si>
-  <si>
-    <t>2003301</t>
-  </si>
-  <si>
-    <t>唐依技能 : 2001021,2100702,2100703,2001003</t>
-  </si>
-  <si>
-    <t>召唤怪物近战</t>
-  </si>
-  <si>
-    <t>2002001,2002002</t>
-  </si>
-  <si>
-    <t>召唤怪物远战</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
   <sheetPr/>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2224,7 +2227,7 @@
         <v>101</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25">
@@ -2260,7 +2263,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2277,7 +2280,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="19350" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>#</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>2002011,2002012</t>
+  </si>
+  <si>
+    <t>ai 近战兵</t>
+  </si>
+  <si>
+    <t>2601101</t>
+  </si>
+  <si>
+    <t>ai 远程兵</t>
+  </si>
+  <si>
+    <t>2602101</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1334,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2246,6 +2258,113 @@
         <v>15003501</v>
       </c>
       <c r="S25">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:19">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1300101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>15011032</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>10001</v>
+      </c>
+      <c r="I29">
+        <v>10001</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29">
+        <v>15003501</v>
+      </c>
+      <c r="S29">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="7:11">
+      <c r="G30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:19">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1300102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>15011033</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>10001</v>
+      </c>
+      <c r="I31">
+        <v>10001</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31">
+        <v>15003501</v>
+      </c>
+      <c r="S31">
         <v>15003602</v>
       </c>
     </row>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12255"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2003201</t>
+    <t>2002101,2602301</t>
   </si>
   <si>
     <t>2003301</t>
@@ -340,7 +340,7 @@
     <t>ai 远程兵</t>
   </si>
   <si>
-    <t>2602101</t>
+    <t>2602101,2602301</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="15840" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2602301</t>
+    <t>2002101,2602201</t>
   </si>
   <si>
     <t>2003301</t>
@@ -340,7 +340,7 @@
     <t>ai 远程兵</t>
   </si>
   <si>
-    <t>2602101,2602301</t>
+    <t>2602101,2602201</t>
   </si>
 </sst>
 </file>
@@ -506,12 +506,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1336,8 +1336,12 @@
   <sheetPr/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H17" activePane="bottomRight"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="8685"/>
+    <workbookView windowWidth="16665" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2602201</t>
+    <t>2002101,2602501</t>
   </si>
   <si>
     <t>2003301</t>
@@ -340,7 +340,7 @@
     <t>ai 远程兵</t>
   </si>
   <si>
-    <t>2602101,2602201</t>
+    <t>2602101,2602501</t>
   </si>
 </sst>
 </file>
@@ -506,12 +506,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1337,11 +1337,11 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H17" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H8" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="8685"/>
+    <workbookView windowWidth="15435" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2002101,2602501</t>
+    <t>2002101,2602601</t>
   </si>
   <si>
     <t>2003301</t>
@@ -340,7 +340,7 @@
     <t>ai 远程兵</t>
   </si>
   <si>
-    <t>2602101,2602501</t>
+    <t>2602101,2602601</t>
   </si>
 </sst>
 </file>
@@ -1337,11 +1337,11 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H8" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H14" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15435" windowHeight="8685"/>
+    <workbookView windowWidth="17220" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -160,7 +160,7 @@
     <t>星级属性模板id</t>
   </si>
   <si>
-    <t>技能id列表(这个会换成技能模板)</t>
+    <t>技能id列表</t>
   </si>
   <si>
     <t>大招技能配置id</t>
@@ -190,6 +190,30 @@
     <t>全身像资源id</t>
   </si>
   <si>
+    <t>唐依</t>
+  </si>
+  <si>
+    <t>2003101</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>BaseAI</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>2101101</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
     <t>上官唯</t>
   </si>
   <si>
@@ -199,9 +223,6 @@
     <t>2001001,2001002,2001003,2001004,2001005,2001006</t>
   </si>
   <si>
-    <t>BaseAI</t>
-  </si>
-  <si>
     <t>凤紫夕</t>
   </si>
   <si>
@@ -211,9 +232,6 @@
     <t>2001001,2001002</t>
   </si>
   <si>
-    <t>唐依</t>
-  </si>
-  <si>
     <t>峨眉派弟子，擅长使用弓箭。她天性开朗，乐观向上，总是带着灿烂的笑容。她始终抱持正义之心，保护弱者，与邪恶势力作斗争，为维护和平而奋斗。</t>
   </si>
   <si>
@@ -253,18 +271,12 @@
     <t>2002001(怪物1 普通攻击)</t>
   </si>
   <si>
-    <t>怪物1</t>
-  </si>
-  <si>
     <t>10003001</t>
   </si>
   <si>
     <t>2201101</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>怪物2</t>
   </si>
   <si>
@@ -296,9 +308,6 @@
   </si>
   <si>
     <t>上官翎_npc_001</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1</t>
   </si>
   <si>
     <t>怪物1 的 技能 2002002</t>
@@ -517,12 +526,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -843,7 +858,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,16 +882,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -885,90 +900,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -979,6 +997,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1334,14 +1358,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H14" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1352,7 +1376,7 @@
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="47.125" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
@@ -1366,7 +1390,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1384,7 +1408,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1443,7 +1467,7 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="s">
@@ -1484,34 +1508,34 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="L3" t="s">
@@ -1539,122 +1563,64 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1000001</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>15011030</v>
-      </c>
-      <c r="G4">
-        <v>10001001</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4">
-        <v>15003501</v>
-      </c>
-      <c r="S4">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1000002</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>15011001</v>
-      </c>
-      <c r="G5">
-        <v>10001002</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5">
-        <v>15003503</v>
-      </c>
-      <c r="S5">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+    <row r="4" spans="3:11">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:19">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>1000003</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>15011031</v>
       </c>
-      <c r="G6">
-        <v>10001003</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
+      <c r="G6" s="5">
+        <v>10003</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
       <c r="P6" t="s">
         <v>44</v>
       </c>
@@ -1662,260 +1628,131 @@
         <v>15003503</v>
       </c>
       <c r="S6">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:19">
-      <c r="A7" t="s">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:19">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>1000004</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B10">
+        <v>1100001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>15011032</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I10">
+        <v>10001</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10">
+        <v>15003501</v>
+      </c>
+      <c r="S10">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14">
+        <v>1000001</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>15011030</v>
+      </c>
+      <c r="G14">
+        <v>10001001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>15011001</v>
-      </c>
-      <c r="G7">
-        <v>10001002</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7">
-        <v>15003503</v>
-      </c>
-      <c r="S7">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1000005</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>15011001</v>
-      </c>
-      <c r="G8">
-        <v>10001002</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="P8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8">
-        <v>15003503</v>
-      </c>
-      <c r="S8">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1000006</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>15011001</v>
-      </c>
-      <c r="G9">
-        <v>10001002</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9">
-        <v>15003503</v>
-      </c>
-      <c r="S9">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11">
-        <v>1000101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>15011001</v>
-      </c>
-      <c r="G11">
-        <v>10001002</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="P11" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11">
-        <v>15003501</v>
-      </c>
-      <c r="S11">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12">
-        <v>1000102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>15011001</v>
-      </c>
-      <c r="G12">
-        <v>10001002</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="P12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12">
-        <v>15003503</v>
-      </c>
-      <c r="S12">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="13" spans="10:11">
-      <c r="J13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>1000201</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>15011032</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14">
-        <v>10001</v>
-      </c>
-      <c r="I14">
-        <v>10001</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>65</v>
-      </c>
+      <c r="K14" s="8"/>
       <c r="P14" t="s">
         <v>44</v>
       </c>
@@ -1923,230 +1760,272 @@
         <v>15003501</v>
       </c>
       <c r="S14">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15">
-        <v>1000202</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>1000002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>15011033</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15">
-        <v>10001</v>
+        <v>15011001</v>
+      </c>
+      <c r="G15">
+        <v>10001002</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>10001</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>69</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="P15" t="s">
         <v>44</v>
       </c>
       <c r="R15">
-        <v>15003501</v>
+        <v>15003503</v>
       </c>
       <c r="S15">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16">
-        <v>1000210</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>1000003</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>15011034</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16">
-        <v>10001</v>
+        <v>15011031</v>
+      </c>
+      <c r="G16">
+        <v>10001003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>10001</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>69</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="8"/>
       <c r="P16" t="s">
         <v>44</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
       <c r="R16">
-        <v>15003501</v>
+        <v>15003503</v>
       </c>
       <c r="S16">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="2:19">
+      <c r="B17">
+        <v>1000004</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>15011001</v>
+      </c>
+      <c r="G17">
+        <v>10001002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17">
+        <v>15003503</v>
+      </c>
+      <c r="S17">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18">
+        <v>1000005</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>15011001</v>
+      </c>
+      <c r="G18">
+        <v>10001002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18">
+        <v>15003503</v>
+      </c>
+      <c r="S18">
         <v>15003601</v>
       </c>
     </row>
-    <row r="17" ht="12" customHeight="1" spans="10:11">
-      <c r="J17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
+    <row r="19" spans="2:19">
       <c r="B19">
-        <v>1200001</v>
+        <v>1000006</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>15011030</v>
+        <v>15011001</v>
       </c>
       <c r="G19">
-        <v>10001001</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+        <v>10001002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="P19" t="s">
         <v>44</v>
       </c>
       <c r="R19">
+        <v>15003503</v>
+      </c>
+      <c r="S19">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21">
+        <v>1000101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>15011001</v>
+      </c>
+      <c r="G21">
+        <v>10001002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21">
         <v>15003501</v>
       </c>
-      <c r="S19">
+      <c r="S21">
         <v>15003601</v>
       </c>
     </row>
-    <row r="20" spans="10:10">
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10">
-      <c r="J21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
+    <row r="22" spans="2:19">
       <c r="B22">
-        <v>1200021</v>
+        <v>1000102</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>15011031</v>
+        <v>15011001</v>
       </c>
       <c r="G22">
-        <v>10001003</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+        <v>10001002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="P22" t="s">
         <v>44</v>
       </c>
@@ -2154,27 +2033,24 @@
         <v>15003503</v>
       </c>
       <c r="S22">
-        <v>15003603</v>
+        <v>15003602</v>
       </c>
     </row>
     <row r="23" spans="10:11">
-      <c r="J23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:19">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
+      <c r="J23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24">
-        <v>1200101</v>
+        <v>1000201</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2182,19 +2058,19 @@
       <c r="F24">
         <v>15011032</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="1">
         <v>10001</v>
       </c>
       <c r="I24">
-        <v>101</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24" s="4"/>
+        <v>10001</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="7"/>
       <c r="L24">
         <v>1</v>
       </c>
@@ -2202,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
@@ -2214,18 +2090,15 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:19">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
+    <row r="25" spans="2:19">
       <c r="B25">
-        <v>1200102</v>
+        <v>1000202</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2233,19 +2106,19 @@
       <c r="F25">
         <v>15011033</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="1">
         <v>10001</v>
       </c>
       <c r="I25">
-        <v>101</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" s="4"/>
+        <v>10001</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="7"/>
       <c r="L25">
         <v>1</v>
       </c>
@@ -2253,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s">
         <v>44</v>
@@ -2265,38 +2138,98 @@
         <v>15003602</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:19">
-      <c r="A29" t="s">
+    <row r="26" spans="2:19">
+      <c r="B26">
+        <v>1000210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
+      <c r="F26">
+        <v>15011034</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I26">
+        <v>10001</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>15003501</v>
+      </c>
+      <c r="S26">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="27" ht="12" customHeight="1" spans="10:11">
+      <c r="J27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29">
-        <v>1300101</v>
+        <v>1200001</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>15011032</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29">
-        <v>10001</v>
+        <v>15011030</v>
+      </c>
+      <c r="G29">
+        <v>10001001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>10001</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="8"/>
       <c r="L29">
         <v>1</v>
       </c>
@@ -2304,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
         <v>44</v>
@@ -2316,59 +2249,267 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="7:11">
-      <c r="G30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:19">
-      <c r="A31" t="s">
+    <row r="30" spans="10:10">
+      <c r="J30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32">
+        <v>1200021</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="B31">
+      <c r="F32">
+        <v>15011031</v>
+      </c>
+      <c r="G32">
+        <v>10001003</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32">
+        <v>15003503</v>
+      </c>
+      <c r="S32">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:19">
+      <c r="B34">
+        <v>1200101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>15011032</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I34">
+        <v>101</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34">
+        <v>15003501</v>
+      </c>
+      <c r="S34">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="2:19">
+      <c r="B35">
+        <v>1200102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>15011033</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I35">
+        <v>101</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35">
+        <v>15003501</v>
+      </c>
+      <c r="S35">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="2:19">
+      <c r="B39">
+        <v>1300101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>15011032</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I39">
+        <v>10001</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>48</v>
+      </c>
+      <c r="P39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39">
+        <v>15003501</v>
+      </c>
+      <c r="S39">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="7:11">
+      <c r="G40" s="7"/>
+      <c r="H40" s="1"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" customFormat="1" spans="2:19">
+      <c r="B41">
         <v>1300102</v>
       </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31">
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F41">
         <v>15011033</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31">
+      <c r="G41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="1">
         <v>10001</v>
       </c>
-      <c r="I31">
+      <c r="I41">
         <v>10001</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="J41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="s">
         <v>44</v>
       </c>
-      <c r="R31">
+      <c r="R41">
         <v>15003501</v>
       </c>
-      <c r="S31">
+      <c r="S41">
         <v>15003602</v>
       </c>
     </row>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -193,7 +193,7 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>2003101</t>
+    <t>2003101,2003201</t>
   </si>
   <si>
     <t>1,1,1,1,1,1</t>
@@ -1361,11 +1361,11 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890"/>
+    <workbookView windowWidth="16365" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -196,6 +196,9 @@
     <t>2003101,2003201</t>
   </si>
   <si>
+    <t>2003301</t>
+  </si>
+  <si>
     <t>1,1,1,1,1,1</t>
   </si>
   <si>
@@ -320,9 +323,6 @@
   </si>
   <si>
     <t>2002101,2602601</t>
-  </si>
-  <si>
-    <t>2003301</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2100702,2100703,2001003</t>
@@ -1361,11 +1361,11 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="J1" activePane="topRight"/>
       <selection/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1608,7 +1608,9 @@
       <c r="J6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="L6">
         <v>1</v>
       </c>
@@ -1619,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6">
         <v>15003503</v>
@@ -1660,10 +1662,10 @@
         <v>1100001</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1672,7 +1674,7 @@
         <v>15011032</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1">
         <v>10001</v>
@@ -1681,7 +1683,7 @@
         <v>10001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10">
@@ -1691,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R10">
         <v>15003501</v>
@@ -1729,10 +1731,10 @@
         <v>1000001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1750,11 +1752,11 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="8"/>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R14">
         <v>15003501</v>
@@ -1768,10 +1770,10 @@
         <v>1000002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1789,11 +1791,11 @@
         <v>2</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7"/>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R15">
         <v>15003503</v>
@@ -1810,7 +1812,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1828,11 +1830,11 @@
         <v>2</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K16" s="8"/>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R16">
         <v>15003503</v>
@@ -1846,10 +1848,10 @@
         <v>1000004</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1867,11 +1869,11 @@
         <v>2</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7"/>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R17">
         <v>15003503</v>
@@ -1885,10 +1887,10 @@
         <v>1000005</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1906,11 +1908,11 @@
         <v>2</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="7"/>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R18">
         <v>15003503</v>
@@ -1924,10 +1926,10 @@
         <v>1000006</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1945,11 +1947,11 @@
         <v>2</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7"/>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R19">
         <v>15003503</v>
@@ -1963,10 +1965,10 @@
         <v>1000101</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1984,11 +1986,11 @@
         <v>2</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7"/>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R21">
         <v>15003501</v>
@@ -2002,10 +2004,10 @@
         <v>1000102</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2023,11 +2025,11 @@
         <v>2</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" s="7"/>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R22">
         <v>15003503</v>
@@ -2038,7 +2040,7 @@
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7"/>
     </row>
@@ -2047,10 +2049,10 @@
         <v>1000201</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>15011032</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1">
         <v>10001</v>
@@ -2068,7 +2070,7 @@
         <v>10001</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24">
@@ -2078,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R24">
         <v>15003501</v>
@@ -2095,10 +2097,10 @@
         <v>1000202</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2107,7 +2109,7 @@
         <v>15011033</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H25" s="1">
         <v>10001</v>
@@ -2116,7 +2118,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25">
@@ -2126,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R25">
         <v>15003501</v>
@@ -2143,10 +2145,10 @@
         <v>1000210</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2155,7 +2157,7 @@
         <v>15011034</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" s="1">
         <v>10001</v>
@@ -2164,7 +2166,7 @@
         <v>10001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26">
@@ -2174,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2191,13 +2193,13 @@
     </row>
     <row r="27" ht="12" customHeight="1" spans="10:11">
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="10:11">
       <c r="J28" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K28" s="8"/>
     </row>
@@ -2206,10 +2208,10 @@
         <v>1200001</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2227,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29">
@@ -2237,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R29">
         <v>15003501</v>
@@ -2251,12 +2253,12 @@
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -2264,10 +2266,10 @@
         <v>1200021</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2285,10 +2287,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2297,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R32">
         <v>15003503</v>
@@ -2323,7 +2325,7 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2332,7 +2334,7 @@
         <v>15011032</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" s="1">
         <v>10001</v>
@@ -2351,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R34">
         <v>15003501</v>
@@ -2371,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2380,7 +2382,7 @@
         <v>15011033</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
@@ -2399,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R35">
         <v>15003501</v>
@@ -2428,7 +2430,7 @@
         <v>15011032</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" s="1">
         <v>10001</v>
@@ -2447,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R39">
         <v>15003501</v>
@@ -2482,7 +2484,7 @@
         <v>15011033</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H41" s="1">
         <v>10001</v>
@@ -2501,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R41">
         <v>15003501</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16365" windowHeight="10890"/>
+    <workbookView windowWidth="18855" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
   <si>
     <t>#</t>
   </si>
@@ -205,6 +205,12 @@
     <t>BaseAI</t>
   </si>
   <si>
+    <t>夜魂</t>
+  </si>
+  <si>
+    <t>2004101,2004201</t>
+  </si>
+  <si>
     <t>怪物1</t>
   </si>
   <si>
@@ -239,9 +245,6 @@
   </si>
   <si>
     <t>2001021,2001022,2001023,2001024,2001025,2001026</t>
-  </si>
-  <si>
-    <t>夜魂</t>
   </si>
   <si>
     <t>穿越过来的</t>
@@ -1361,11 +1364,11 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="J1" activePane="topRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomRight"/>
       <selection/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1633,12 +1636,50 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+    <row r="7" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1000004</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>15011030</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7">
+        <v>15003503</v>
+      </c>
+      <c r="S7">
+        <v>15003603</v>
+      </c>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="2"/>
@@ -1662,10 +1703,10 @@
         <v>1100001</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1674,7 +1715,7 @@
         <v>15011032</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1">
         <v>10001</v>
@@ -1683,7 +1724,7 @@
         <v>10001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10">
@@ -1693,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P10" t="s">
         <v>45</v>
@@ -1731,10 +1772,10 @@
         <v>1000001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1752,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14" s="8"/>
       <c r="P14" t="s">
@@ -1770,10 +1811,10 @@
         <v>1000002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1791,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7"/>
       <c r="P15" t="s">
@@ -1812,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1830,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K16" s="8"/>
       <c r="P16" t="s">
@@ -1848,10 +1889,10 @@
         <v>1000004</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1869,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7"/>
       <c r="P17" t="s">
@@ -1887,10 +1928,10 @@
         <v>1000005</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1908,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18" s="7"/>
       <c r="P18" t="s">
@@ -1926,10 +1967,10 @@
         <v>1000006</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1947,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7"/>
       <c r="P19" t="s">
@@ -1965,10 +2006,10 @@
         <v>1000101</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1986,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7"/>
       <c r="P21" t="s">
@@ -2004,10 +2045,10 @@
         <v>1000102</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2025,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K22" s="7"/>
       <c r="P22" t="s">
@@ -2040,7 +2081,7 @@
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23" s="7"/>
     </row>
@@ -2049,10 +2090,10 @@
         <v>1000201</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2061,7 +2102,7 @@
         <v>15011032</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="1">
         <v>10001</v>
@@ -2070,7 +2111,7 @@
         <v>10001</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24">
@@ -2080,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P24" t="s">
         <v>45</v>
@@ -2097,10 +2138,10 @@
         <v>1000202</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2109,7 +2150,7 @@
         <v>15011033</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1">
         <v>10001</v>
@@ -2118,7 +2159,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25">
@@ -2128,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P25" t="s">
         <v>45</v>
@@ -2145,10 +2186,10 @@
         <v>1000210</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2157,7 +2198,7 @@
         <v>15011034</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="1">
         <v>10001</v>
@@ -2166,7 +2207,7 @@
         <v>10001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26">
@@ -2176,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s">
         <v>45</v>
@@ -2193,13 +2234,13 @@
     </row>
     <row r="27" ht="12" customHeight="1" spans="10:11">
       <c r="J27" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="10:11">
       <c r="J28" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" s="8"/>
     </row>
@@ -2208,10 +2249,10 @@
         <v>1200001</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2229,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29">
@@ -2253,12 +2294,12 @@
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -2266,10 +2307,10 @@
         <v>1200021</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2287,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>43</v>
@@ -2313,7 +2354,7 @@
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33" s="8"/>
     </row>
@@ -2322,10 +2363,10 @@
         <v>1200101</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2334,7 +2375,7 @@
         <v>15011032</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H34" s="1">
         <v>10001</v>
@@ -2343,7 +2384,7 @@
         <v>101</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34">
@@ -2353,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P34" t="s">
         <v>45</v>
@@ -2370,10 +2411,10 @@
         <v>1200102</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2382,7 +2423,7 @@
         <v>15011033</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
@@ -2391,7 +2432,7 @@
         <v>101</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35">
@@ -2401,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s">
         <v>45</v>
@@ -2418,10 +2459,10 @@
         <v>1300101</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2430,7 +2471,7 @@
         <v>15011032</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" s="1">
         <v>10001</v>
@@ -2439,7 +2480,7 @@
         <v>10001</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39">
@@ -2449,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P39" t="s">
         <v>45</v>
@@ -2472,10 +2513,10 @@
         <v>1300102</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2484,7 +2525,7 @@
         <v>15011033</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H41" s="1">
         <v>10001</v>
@@ -2493,7 +2534,7 @@
         <v>10001</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41">
@@ -2503,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P41" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="10890"/>
+    <workbookView windowWidth="15735" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1363,12 +1363,12 @@
   <sheetPr/>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomRight"/>
-      <selection/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="topLeft"/>
+      <selection activeCell="J7" sqref="J7"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2570,7 +2570,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2587,7 +2587,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10455"/>
+    <workbookView windowWidth="24120" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -211,6 +211,12 @@
     <t>2004101,2004201</t>
   </si>
   <si>
+    <t>萧玉</t>
+  </si>
+  <si>
+    <t>2005101,2005201</t>
+  </si>
+  <si>
     <t>怪物1</t>
   </si>
   <si>
@@ -248,9 +254,6 @@
   </si>
   <si>
     <t>穿越过来的</t>
-  </si>
-  <si>
-    <t>萧玉</t>
   </si>
   <si>
     <t>峨眉掌门</t>
@@ -1363,12 +1366,12 @@
   <sheetPr/>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="topLeft"/>
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="D1" activePane="bottomRight"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1570,6 +1573,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
@@ -1577,6 +1581,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
@@ -1597,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15011031</v>
+        <v>15011033</v>
       </c>
       <c r="G6" s="5">
         <v>10003</v>
@@ -1653,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15011030</v>
+        <v>15011034</v>
       </c>
       <c r="G7" s="5">
         <v>10004</v>
@@ -1681,12 +1686,61 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+    <row r="8" customFormat="1" spans="1:19">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1000005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>15011035</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10005</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8">
+        <v>15003503</v>
+      </c>
+      <c r="S8">
+        <v>15003603</v>
+      </c>
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="2"/>
@@ -1703,19 +1757,19 @@
         <v>1100001</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>15011032</v>
+        <v>15011101</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1">
         <v>10001</v>
@@ -1724,7 +1778,7 @@
         <v>10001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10">
@@ -1734,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s">
         <v>45</v>
@@ -1772,10 +1826,10 @@
         <v>1000001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1793,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14" s="8"/>
       <c r="P14" t="s">
@@ -1811,10 +1865,10 @@
         <v>1000002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1832,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7"/>
       <c r="P15" t="s">
@@ -1853,7 +1907,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1871,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K16" s="8"/>
       <c r="P16" t="s">
@@ -1892,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1910,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7"/>
       <c r="P17" t="s">
@@ -1928,10 +1982,10 @@
         <v>1000005</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1949,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K18" s="7"/>
       <c r="P18" t="s">
@@ -1967,10 +2021,10 @@
         <v>1000006</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1988,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7"/>
       <c r="P19" t="s">
@@ -2006,10 +2060,10 @@
         <v>1000101</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2027,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7"/>
       <c r="P21" t="s">
@@ -2045,10 +2099,10 @@
         <v>1000102</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2066,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7"/>
       <c r="P22" t="s">
@@ -2081,7 +2135,7 @@
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7"/>
     </row>
@@ -2090,10 +2144,10 @@
         <v>1000201</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2102,7 +2156,7 @@
         <v>15011032</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H24" s="1">
         <v>10001</v>
@@ -2111,7 +2165,7 @@
         <v>10001</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24">
@@ -2121,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s">
         <v>45</v>
@@ -2138,10 +2192,10 @@
         <v>1000202</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2150,7 +2204,7 @@
         <v>15011033</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" s="1">
         <v>10001</v>
@@ -2159,7 +2213,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25">
@@ -2169,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s">
         <v>45</v>
@@ -2186,10 +2240,10 @@
         <v>1000210</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2198,7 +2252,7 @@
         <v>15011034</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="1">
         <v>10001</v>
@@ -2207,7 +2261,7 @@
         <v>10001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26">
@@ -2217,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s">
         <v>45</v>
@@ -2234,13 +2288,13 @@
     </row>
     <row r="27" ht="12" customHeight="1" spans="10:11">
       <c r="J27" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="10:11">
       <c r="J28" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K28" s="8"/>
     </row>
@@ -2249,10 +2303,10 @@
         <v>1200001</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2270,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29">
@@ -2294,12 +2348,12 @@
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -2307,10 +2361,10 @@
         <v>1200021</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2328,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>43</v>
@@ -2354,7 +2408,7 @@
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33" s="8"/>
     </row>
@@ -2363,10 +2417,10 @@
         <v>1200101</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2375,7 +2429,7 @@
         <v>15011032</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H34" s="1">
         <v>10001</v>
@@ -2384,7 +2438,7 @@
         <v>101</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34">
@@ -2394,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s">
         <v>45</v>
@@ -2411,10 +2465,10 @@
         <v>1200102</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2423,7 +2477,7 @@
         <v>15011033</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
@@ -2432,7 +2486,7 @@
         <v>101</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35">
@@ -2442,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P35" t="s">
         <v>45</v>
@@ -2459,10 +2513,10 @@
         <v>1300101</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2471,7 +2525,7 @@
         <v>15011032</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" s="1">
         <v>10001</v>
@@ -2480,7 +2534,7 @@
         <v>10001</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39">
@@ -2490,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s">
         <v>45</v>
@@ -2513,10 +2567,10 @@
         <v>1300102</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2525,7 +2579,7 @@
         <v>15011033</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" s="1">
         <v>10001</v>
@@ -2534,7 +2588,7 @@
         <v>10001</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41">
@@ -2544,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P41" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24120" windowHeight="10890"/>
+    <workbookView windowWidth="30240" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -361,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -521,12 +508,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -988,11 +975,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1010,8 +1000,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,14 +1357,14 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="D1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="C1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1384,7 +1374,7 @@
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="47.125" customWidth="1"/>
+    <col min="10" max="10" width="47.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="15" max="15" width="11.375" customWidth="1"/>
@@ -1396,7 +1386,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1420,7 +1410,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1479,7 +1469,7 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K2" t="s">
@@ -1510,23 +1500,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:19">
+    <row r="3" ht="68" spans="1:19">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
@@ -1538,10 +1528,10 @@
       <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L3" t="s">
@@ -1570,20 +1560,18 @@
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="1" spans="1:19">
       <c r="A6" t="s">
@@ -1604,7 +1592,7 @@
       <c r="F6">
         <v>15011033</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>10003</v>
       </c>
       <c r="H6" s="1">
@@ -1613,10 +1601,10 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="L6">
@@ -1648,19 +1636,19 @@
       <c r="B7">
         <v>1000004</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7">
         <v>15011034</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>10004</v>
       </c>
       <c r="H7" s="1">
@@ -1669,10 +1657,10 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="2"/>
       <c r="O7" t="s">
         <v>44</v>
       </c>
@@ -1705,7 +1693,7 @@
       <c r="F8">
         <v>15011035</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>10005</v>
       </c>
       <c r="H8" s="1">
@@ -1714,10 +1702,10 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="L8">
@@ -1743,11 +1731,11 @@
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="1:19">
       <c r="A10" t="s">
@@ -1768,7 +1756,7 @@
       <c r="F10">
         <v>15011101</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="1">
@@ -1777,10 +1765,10 @@
       <c r="I10">
         <v>10001</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="2"/>
       <c r="L10">
         <v>1</v>
       </c>
@@ -1801,37 +1789,37 @@
       </c>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="3:11">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:19">
       <c r="B14">
         <v>1000001</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14">
@@ -1846,10 +1834,10 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="9"/>
       <c r="P14" t="s">
         <v>45</v>
       </c>
@@ -1864,13 +1852,13 @@
       <c r="B15">
         <v>1000002</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15">
@@ -1885,10 +1873,10 @@
       <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="2"/>
       <c r="P15" t="s">
         <v>45</v>
       </c>
@@ -1903,13 +1891,13 @@
       <c r="B16">
         <v>1000003</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16">
@@ -1924,10 +1912,10 @@
       <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="9"/>
       <c r="P16" t="s">
         <v>45</v>
       </c>
@@ -1942,13 +1930,13 @@
       <c r="B17">
         <v>1000004</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17">
@@ -1963,10 +1951,10 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="2"/>
       <c r="P17" t="s">
         <v>45</v>
       </c>
@@ -1987,7 +1975,7 @@
       <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18">
@@ -2002,10 +1990,10 @@
       <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="2"/>
       <c r="P18" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2014,7 @@
       <c r="D19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19">
@@ -2041,10 +2029,10 @@
       <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="2"/>
       <c r="P19" t="s">
         <v>45</v>
       </c>
@@ -2080,10 +2068,10 @@
       <c r="I21">
         <v>2</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="2"/>
       <c r="P21" t="s">
         <v>45</v>
       </c>
@@ -2119,10 +2107,10 @@
       <c r="I22">
         <v>2</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="2"/>
       <c r="P22" t="s">
         <v>45</v>
       </c>
@@ -2134,10 +2122,10 @@
       </c>
     </row>
     <row r="23" spans="10:11">
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:19">
       <c r="B24">
@@ -2155,7 +2143,7 @@
       <c r="F24">
         <v>15011032</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H24" s="1">
@@ -2164,10 +2152,10 @@
       <c r="I24">
         <v>10001</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="2"/>
       <c r="L24">
         <v>1</v>
       </c>
@@ -2203,7 +2191,7 @@
       <c r="F25">
         <v>15011033</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H25" s="1">
@@ -2212,10 +2200,10 @@
       <c r="I25">
         <v>10001</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="2"/>
       <c r="L25">
         <v>1</v>
       </c>
@@ -2251,7 +2239,7 @@
       <c r="F26">
         <v>15011034</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H26" s="1">
@@ -2260,10 +2248,10 @@
       <c r="I26">
         <v>10001</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="2"/>
       <c r="L26">
         <v>1</v>
       </c>
@@ -2287,16 +2275,16 @@
       </c>
     </row>
     <row r="27" ht="12" customHeight="1" spans="10:11">
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="10:11">
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="8"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:19">
       <c r="B29">
@@ -2323,10 +2311,10 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K29" s="8"/>
+      <c r="K29" s="9"/>
       <c r="L29">
         <v>1</v>
       </c>
@@ -2347,12 +2335,12 @@
       </c>
     </row>
     <row r="30" spans="10:10">
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="10:10">
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2381,10 +2369,10 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="9" t="s">
         <v>43</v>
       </c>
       <c r="L32">
@@ -2407,10 +2395,10 @@
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="8"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" customFormat="1" spans="2:19">
       <c r="B34">
@@ -2428,7 +2416,7 @@
       <c r="F34">
         <v>15011032</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="1">
@@ -2437,10 +2425,10 @@
       <c r="I34">
         <v>101</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="2"/>
       <c r="L34">
         <v>1</v>
       </c>
@@ -2476,7 +2464,7 @@
       <c r="F35">
         <v>15011033</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H35" s="1">
@@ -2485,10 +2473,10 @@
       <c r="I35">
         <v>101</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="2"/>
       <c r="L35">
         <v>1</v>
       </c>
@@ -2524,7 +2512,7 @@
       <c r="F39">
         <v>15011032</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H39" s="1">
@@ -2533,10 +2521,10 @@
       <c r="I39">
         <v>10001</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="2"/>
       <c r="L39">
         <v>1</v>
       </c>
@@ -2557,10 +2545,10 @@
       </c>
     </row>
     <row r="40" customFormat="1" spans="7:11">
-      <c r="G40" s="7"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="1"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41" customFormat="1" spans="2:19">
       <c r="B41">
@@ -2578,7 +2566,7 @@
       <c r="F41">
         <v>15011033</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H41" s="1">
@@ -2587,10 +2575,10 @@
       <c r="I41">
         <v>10001</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="2"/>
       <c r="L41">
         <v>1</v>
       </c>
@@ -2627,7 +2615,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2644,7 +2632,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="17400"/>
+    <workbookView windowWidth="26640" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>2004101,2004201</t>
+  </si>
+  <si>
+    <t>2004301</t>
   </si>
   <si>
     <t>萧玉</t>
@@ -1361,7 +1364,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1660,7 +1663,9 @@
       <c r="J7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O7" t="s">
         <v>44</v>
       </c>
@@ -1682,10 +1687,10 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1703,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>43</v>
@@ -1745,10 +1750,10 @@
         <v>1100001</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1757,7 +1762,7 @@
         <v>15011101</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1">
         <v>10001</v>
@@ -1766,7 +1771,7 @@
         <v>10001</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10">
@@ -1776,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s">
         <v>45</v>
@@ -1814,10 +1819,10 @@
         <v>1000001</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1835,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" s="9"/>
       <c r="P14" t="s">
@@ -1853,10 +1858,10 @@
         <v>1000002</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1874,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="2"/>
       <c r="P15" t="s">
@@ -1895,7 +1900,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1913,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" s="9"/>
       <c r="P16" t="s">
@@ -1934,7 +1939,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1952,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2"/>
       <c r="P17" t="s">
@@ -1970,10 +1975,10 @@
         <v>1000005</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1991,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K18" s="2"/>
       <c r="P18" t="s">
@@ -2009,10 +2014,10 @@
         <v>1000006</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -2030,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K19" s="2"/>
       <c r="P19" t="s">
@@ -2048,10 +2053,10 @@
         <v>1000101</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2069,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="2"/>
       <c r="P21" t="s">
@@ -2087,10 +2092,10 @@
         <v>1000102</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2108,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K22" s="2"/>
       <c r="P22" t="s">
@@ -2123,7 +2128,7 @@
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -2132,10 +2137,10 @@
         <v>1000201</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2144,7 +2149,7 @@
         <v>15011032</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1">
         <v>10001</v>
@@ -2153,7 +2158,7 @@
         <v>10001</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24">
@@ -2163,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s">
         <v>45</v>
@@ -2180,10 +2185,10 @@
         <v>1000202</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2192,7 +2197,7 @@
         <v>15011033</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" s="1">
         <v>10001</v>
@@ -2201,7 +2206,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25">
@@ -2211,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" t="s">
         <v>45</v>
@@ -2228,10 +2233,10 @@
         <v>1000210</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2240,7 +2245,7 @@
         <v>15011034</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" s="1">
         <v>10001</v>
@@ -2249,7 +2254,7 @@
         <v>10001</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26">
@@ -2259,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" t="s">
         <v>45</v>
@@ -2276,13 +2281,13 @@
     </row>
     <row r="27" ht="12" customHeight="1" spans="10:11">
       <c r="J27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="10:11">
       <c r="J28" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28" s="9"/>
     </row>
@@ -2291,10 +2296,10 @@
         <v>1200001</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2312,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29">
@@ -2336,12 +2341,12 @@
     </row>
     <row r="30" spans="10:10">
       <c r="J30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -2349,10 +2354,10 @@
         <v>1200021</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2370,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>43</v>
@@ -2396,7 +2401,7 @@
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" s="9"/>
     </row>
@@ -2405,10 +2410,10 @@
         <v>1200101</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2417,7 +2422,7 @@
         <v>15011032</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H34" s="1">
         <v>10001</v>
@@ -2426,7 +2431,7 @@
         <v>101</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34">
@@ -2436,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s">
         <v>45</v>
@@ -2453,10 +2458,10 @@
         <v>1200102</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2465,7 +2470,7 @@
         <v>15011033</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
@@ -2474,7 +2479,7 @@
         <v>101</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35">
@@ -2484,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" t="s">
         <v>45</v>
@@ -2501,10 +2506,10 @@
         <v>1300101</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2513,7 +2518,7 @@
         <v>15011032</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" s="1">
         <v>10001</v>
@@ -2522,7 +2527,7 @@
         <v>10001</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39">
@@ -2532,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s">
         <v>45</v>
@@ -2555,10 +2560,10 @@
         <v>1300102</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2567,7 +2572,7 @@
         <v>15011033</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H41" s="1">
         <v>10001</v>
@@ -2576,7 +2581,7 @@
         <v>10001</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41">
@@ -2586,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P41" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="17400"/>
+    <workbookView windowWidth="18270" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -205,6 +218,9 @@
   </si>
   <si>
     <t>2005101,2005201</t>
+  </si>
+  <si>
+    <t>2005301</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -351,7 +367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -511,12 +527,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1360,14 +1376,14 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="C1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1503,7 +1519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="68" spans="1:19">
+    <row r="3" ht="54" spans="1:19">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1711,7 +1727,7 @@
         <v>50</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1750,10 +1766,10 @@
         <v>1100001</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1762,7 +1778,7 @@
         <v>15011101</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1">
         <v>10001</v>
@@ -1771,7 +1787,7 @@
         <v>10001</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10">
@@ -1781,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" t="s">
         <v>45</v>
@@ -1819,10 +1835,10 @@
         <v>1000001</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1840,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14" s="9"/>
       <c r="P14" t="s">
@@ -1858,10 +1874,10 @@
         <v>1000002</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1879,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2"/>
       <c r="P15" t="s">
@@ -1900,7 +1916,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1918,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="9"/>
       <c r="P16" t="s">
@@ -1939,7 +1955,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1957,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17" s="2"/>
       <c r="P17" t="s">
@@ -1978,7 +1994,7 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1996,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18" s="2"/>
       <c r="P18" t="s">
@@ -2014,10 +2030,10 @@
         <v>1000006</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -2035,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K19" s="2"/>
       <c r="P19" t="s">
@@ -2053,10 +2069,10 @@
         <v>1000101</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2074,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="2"/>
       <c r="P21" t="s">
@@ -2092,10 +2108,10 @@
         <v>1000102</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2113,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K22" s="2"/>
       <c r="P22" t="s">
@@ -2128,7 +2144,7 @@
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -2137,10 +2153,10 @@
         <v>1000201</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2149,7 +2165,7 @@
         <v>15011032</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1">
         <v>10001</v>
@@ -2158,7 +2174,7 @@
         <v>10001</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24">
@@ -2168,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P24" t="s">
         <v>45</v>
@@ -2185,10 +2201,10 @@
         <v>1000202</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2197,7 +2213,7 @@
         <v>15011033</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" s="1">
         <v>10001</v>
@@ -2206,7 +2222,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25">
@@ -2216,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" t="s">
         <v>45</v>
@@ -2233,10 +2249,10 @@
         <v>1000210</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2245,7 +2261,7 @@
         <v>15011034</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="1">
         <v>10001</v>
@@ -2254,7 +2270,7 @@
         <v>10001</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26">
@@ -2264,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" t="s">
         <v>45</v>
@@ -2281,13 +2297,13 @@
     </row>
     <row r="27" ht="12" customHeight="1" spans="10:11">
       <c r="J27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="10:11">
       <c r="J28" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28" s="9"/>
     </row>
@@ -2296,10 +2312,10 @@
         <v>1200001</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2317,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29">
@@ -2341,12 +2357,12 @@
     </row>
     <row r="30" spans="10:10">
       <c r="J30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -2354,10 +2370,10 @@
         <v>1200021</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2375,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>43</v>
@@ -2401,7 +2417,7 @@
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33" s="9"/>
     </row>
@@ -2410,10 +2426,10 @@
         <v>1200101</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2422,7 +2438,7 @@
         <v>15011032</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" s="1">
         <v>10001</v>
@@ -2431,7 +2447,7 @@
         <v>101</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34">
@@ -2441,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P34" t="s">
         <v>45</v>
@@ -2458,10 +2474,10 @@
         <v>1200102</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2470,7 +2486,7 @@
         <v>15011033</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
@@ -2479,7 +2495,7 @@
         <v>101</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35">
@@ -2489,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" t="s">
         <v>45</v>
@@ -2506,10 +2522,10 @@
         <v>1300101</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2518,7 +2534,7 @@
         <v>15011032</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H39" s="1">
         <v>10001</v>
@@ -2527,7 +2543,7 @@
         <v>10001</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39">
@@ -2537,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" t="s">
         <v>45</v>
@@ -2560,10 +2576,10 @@
         <v>1300102</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2572,7 +2588,7 @@
         <v>15011033</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H41" s="1">
         <v>10001</v>
@@ -2581,7 +2597,7 @@
         <v>10001</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41">
@@ -2591,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" t="s">
         <v>45</v>
@@ -2620,7 +2636,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2637,7 +2653,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -1379,7 +1379,7 @@
       <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890"/>
+    <workbookView windowWidth="18105" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>#</t>
   </si>
@@ -223,6 +223,12 @@
     <t>2005301</t>
   </si>
   <si>
+    <t>承灵</t>
+  </si>
+  <si>
+    <t>2006101,2006201</t>
+  </si>
+  <si>
     <t>怪物1</t>
   </si>
   <si>
@@ -233,6 +239,15 @@
   </si>
   <si>
     <t>1,1</t>
+  </si>
+  <si>
+    <t>兽灵</t>
+  </si>
+  <si>
+    <t>承灵 q 召唤物</t>
+  </si>
+  <si>
+    <t>2501101</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1373,14 +1388,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomLeft"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1671,16 +1686,25 @@
         <v>10004</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
       </c>
       <c r="O7" t="s">
         <v>44</v>
@@ -1751,489 +1775,276 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:19">
-      <c r="A10" t="s">
+    <row r="9" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>1100001</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B9">
+        <v>1000006</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10">
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F9">
+        <v>15011034</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10006</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9">
+        <v>15003503</v>
+      </c>
+      <c r="S9">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="7:11">
+      <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="7:11">
+      <c r="G11" s="7"/>
+      <c r="H11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="7:11">
+      <c r="G12" s="7"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="7:11">
+      <c r="G13" s="7"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="7:11">
+      <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:19">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1000101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>15011101</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1">
         <v>10001</v>
       </c>
-      <c r="I10">
+      <c r="I15">
         <v>10001</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10">
-        <v>15003501</v>
-      </c>
-      <c r="S10">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14">
-        <v>1000001</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>15011030</v>
-      </c>
-      <c r="G14">
-        <v>10001001</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="P14" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14">
-        <v>15003501</v>
-      </c>
-      <c r="S14">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15">
-        <v>1000002</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>15011001</v>
-      </c>
-      <c r="G15">
-        <v>10001002</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="2"/>
       <c r="P15" t="s">
         <v>45</v>
       </c>
       <c r="R15">
-        <v>15003503</v>
+        <v>15003501</v>
       </c>
       <c r="S15">
         <v>15003601</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
-      <c r="B16">
-        <v>1000003</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>15011031</v>
-      </c>
-      <c r="G16">
-        <v>10001003</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="3:11">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="P16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16">
-        <v>15003503</v>
-      </c>
-      <c r="S16">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="2:19">
-      <c r="B17">
-        <v>1000004</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>15011001</v>
-      </c>
-      <c r="G17">
-        <v>10001002</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="P17" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17">
-        <v>15003503</v>
-      </c>
-      <c r="S17">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18">
-        <v>1000005</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>15011001</v>
-      </c>
-      <c r="G18">
-        <v>10001002</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="P18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18">
-        <v>15003503</v>
-      </c>
-      <c r="S18">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19">
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
       <c r="B19">
-        <v>1000006</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
+        <v>1000501</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>15011001</v>
+        <v>15011104</v>
       </c>
       <c r="G19">
-        <v>10001002</v>
+        <v>20501</v>
       </c>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>10001</v>
       </c>
       <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>10001</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
       <c r="P19" t="s">
         <v>45</v>
       </c>
       <c r="R19">
-        <v>15003503</v>
+        <v>15003501</v>
       </c>
       <c r="S19">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21">
-        <v>1000101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>15011001</v>
-      </c>
-      <c r="G21">
-        <v>10001002</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="P21" t="s">
-        <v>45</v>
-      </c>
-      <c r="R21">
-        <v>15003501</v>
-      </c>
-      <c r="S21">
         <v>15003601</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
-      <c r="B22">
-        <v>1000102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>15011001</v>
-      </c>
-      <c r="G22">
-        <v>10001002</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="P22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R22">
-        <v>15003503</v>
-      </c>
-      <c r="S22">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24">
-        <v>1000201</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>15011032</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I24">
-        <v>10001</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
-        <v>55</v>
-      </c>
-      <c r="P24" t="s">
-        <v>45</v>
-      </c>
-      <c r="R24">
-        <v>15003501</v>
-      </c>
-      <c r="S24">
-        <v>15003601</v>
-      </c>
+    <row r="20" spans="3:11">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:19">
       <c r="B25">
-        <v>1000202</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>1000001</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>15011033</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>15011030</v>
+      </c>
+      <c r="G25">
+        <v>10001001</v>
       </c>
       <c r="H25" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>10001</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="9"/>
       <c r="P25" t="s">
         <v>45</v>
       </c>
@@ -2241,261 +2052,315 @@
         <v>15003501</v>
       </c>
       <c r="S25">
-        <v>15003602</v>
+        <v>15003603</v>
       </c>
     </row>
     <row r="26" spans="2:19">
       <c r="B26">
-        <v>1000210</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+        <v>1000002</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>15011034</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>15011001</v>
+      </c>
+      <c r="G26">
+        <v>10001002</v>
       </c>
       <c r="H26" s="1">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>78</v>
-      </c>
       <c r="P26" t="s">
         <v>45</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
       <c r="R26">
-        <v>15003501</v>
+        <v>15003503</v>
       </c>
       <c r="S26">
         <v>15003601</v>
       </c>
     </row>
-    <row r="27" ht="12" customHeight="1" spans="10:11">
-      <c r="J27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="10:11">
-      <c r="J28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K28" s="9"/>
+    <row r="27" spans="2:19">
+      <c r="B27">
+        <v>1000003</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>15011031</v>
+      </c>
+      <c r="G27">
+        <v>10001003</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="P27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27">
+        <v>15003503</v>
+      </c>
+      <c r="S27">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="2:19">
+      <c r="B28">
+        <v>1000004</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>15011001</v>
+      </c>
+      <c r="G28">
+        <v>10001002</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="P28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28">
+        <v>15003503</v>
+      </c>
+      <c r="S28">
+        <v>15003603</v>
+      </c>
     </row>
     <row r="29" spans="2:19">
       <c r="B29">
-        <v>1200001</v>
+        <v>1000005</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>15011030</v>
+        <v>15011001</v>
       </c>
       <c r="G29">
-        <v>10001001</v>
+        <v>10001002</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>44</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="P29" t="s">
         <v>45</v>
       </c>
       <c r="R29">
-        <v>15003501</v>
+        <v>15003503</v>
       </c>
       <c r="S29">
         <v>15003601</v>
       </c>
     </row>
-    <row r="30" spans="10:10">
+    <row r="30" spans="2:19">
+      <c r="B30">
+        <v>1000006</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>15011001</v>
+      </c>
+      <c r="G30">
+        <v>10001002</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10">
-      <c r="J31" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="P30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30">
+        <v>15003503</v>
+      </c>
+      <c r="S30">
+        <v>15003602</v>
       </c>
     </row>
     <row r="32" spans="2:19">
       <c r="B32">
-        <v>1200021</v>
+        <v>1000101</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>15011031</v>
+        <v>15011001</v>
       </c>
       <c r="G32">
-        <v>10001003</v>
+        <v>10001002</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>44</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="P32" t="s">
         <v>45</v>
       </c>
       <c r="R32">
+        <v>15003501</v>
+      </c>
+      <c r="S32">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33">
+        <v>1000102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>15011001</v>
+      </c>
+      <c r="G33">
+        <v>10001002</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="P33" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33">
         <v>15003503</v>
       </c>
-      <c r="S32">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" customFormat="1" spans="2:19">
-      <c r="B34">
-        <v>1200101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>15011032</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I34">
-        <v>101</v>
-      </c>
+      <c r="S33">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
       <c r="J34" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
-        <v>55</v>
-      </c>
-      <c r="P34" t="s">
-        <v>45</v>
-      </c>
-      <c r="R34">
-        <v>15003501</v>
-      </c>
-      <c r="S34">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="2:19">
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35">
-        <v>1200102</v>
+        <v>1000201</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>15011033</v>
+        <v>15011032</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
       </c>
       <c r="I35">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35">
@@ -2505,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="P35" t="s">
         <v>45</v>
@@ -2514,108 +2379,429 @@
         <v>15003501</v>
       </c>
       <c r="S35">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36">
+        <v>1000202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>15011033</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I36">
+        <v>10001</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36">
+        <v>15003501</v>
+      </c>
+      <c r="S36">
         <v>15003602</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="2:19">
-      <c r="B39">
+    <row r="37" spans="2:19">
+      <c r="B37">
+        <v>1000210</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>15011034</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I37">
+        <v>10001</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>15003501</v>
+      </c>
+      <c r="S37">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="38" ht="12" customHeight="1" spans="10:11">
+      <c r="J38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40">
+        <v>1200001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>15011030</v>
+      </c>
+      <c r="G40">
+        <v>10001001</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>45</v>
+      </c>
+      <c r="R40">
+        <v>15003501</v>
+      </c>
+      <c r="S40">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="B43">
+        <v>1200021</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>15011031</v>
+      </c>
+      <c r="G43">
+        <v>10001003</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43">
+        <v>15003503</v>
+      </c>
+      <c r="S43">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" customFormat="1" spans="2:19">
+      <c r="B45">
+        <v>1200101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>15011032</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I45">
+        <v>101</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45">
+        <v>15003501</v>
+      </c>
+      <c r="S45">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="2:19">
+      <c r="B46">
+        <v>1200102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>15011033</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I46">
+        <v>101</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <v>15003501</v>
+      </c>
+      <c r="S46">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="2:19">
+      <c r="B50">
         <v>1300101</v>
       </c>
-      <c r="C39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39">
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50">
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F50">
         <v>15011032</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="G50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="1">
         <v>10001</v>
       </c>
-      <c r="I39">
+      <c r="I50">
         <v>10001</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>55</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="J50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>57</v>
+      </c>
+      <c r="P50" t="s">
         <v>45</v>
       </c>
-      <c r="R39">
+      <c r="R50">
         <v>15003501</v>
       </c>
-      <c r="S39">
+      <c r="S50">
         <v>15003601</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="7:11">
-      <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" customFormat="1" spans="2:19">
-      <c r="B41">
+    <row r="51" customFormat="1" spans="7:11">
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" spans="2:19">
+      <c r="B52">
         <v>1300102</v>
       </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41">
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="F41">
+      <c r="F52">
         <v>15011033</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="G52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="1">
         <v>10001</v>
       </c>
-      <c r="I41">
+      <c r="I52">
         <v>10001</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
-        <v>78</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="J52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P52" t="s">
         <v>45</v>
       </c>
-      <c r="R41">
+      <c r="R52">
         <v>15003501</v>
       </c>
-      <c r="S41">
+      <c r="S52">
         <v>15003602</v>
       </c>
     </row>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -229,6 +229,9 @@
     <t>2006101,2006201</t>
   </si>
   <si>
+    <t>2006301</t>
+  </si>
+  <si>
     <t>怪物1</t>
   </si>
   <si>
@@ -241,13 +244,16 @@
     <t>1,1</t>
   </si>
   <si>
-    <t>兽灵</t>
-  </si>
-  <si>
-    <t>承灵 q 召唤物</t>
+    <t>兽灵（承灵召唤物）</t>
   </si>
   <si>
     <t>2501101</t>
+  </si>
+  <si>
+    <t>将灵（承灵召唤物）</t>
+  </si>
+  <si>
+    <t>2502101</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1391,11 +1397,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="J3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1806,7 +1812,9 @@
       <c r="J9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="L9">
         <v>1</v>
       </c>
@@ -1866,10 +1874,10 @@
         <v>1000101</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1878,7 +1886,7 @@
         <v>15011101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1">
         <v>10001</v>
@@ -1887,7 +1895,7 @@
         <v>10001</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15">
@@ -1897,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" t="s">
         <v>45</v>
@@ -1938,7 +1946,7 @@
         <v>1000501</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>59</v>
@@ -1969,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P19" t="s">
         <v>45</v>
@@ -1981,12 +1989,56 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="J20" s="9"/>
+    <row r="20" customFormat="1" spans="1:19">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1000502</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>15011105</v>
+      </c>
+      <c r="G20">
+        <v>20502</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I20">
+        <v>10001</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="K20" s="9"/>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20">
+        <v>15003501</v>
+      </c>
+      <c r="S20">
+        <v>15003601</v>
+      </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="3"/>
@@ -2021,10 +2073,10 @@
         <v>1000001</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -2042,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K25" s="9"/>
       <c r="P25" t="s">
@@ -2060,10 +2112,10 @@
         <v>1000002</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -2081,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K26" s="2"/>
       <c r="P26" t="s">
@@ -2102,7 +2154,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -2120,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K27" s="9"/>
       <c r="P27" t="s">
@@ -2141,7 +2193,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -2159,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K28" s="2"/>
       <c r="P28" t="s">
@@ -2180,7 +2232,7 @@
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2198,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K29" s="2"/>
       <c r="P29" t="s">
@@ -2216,10 +2268,10 @@
         <v>1000006</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -2237,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K30" s="2"/>
       <c r="P30" t="s">
@@ -2255,10 +2307,10 @@
         <v>1000101</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2276,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K32" s="2"/>
       <c r="P32" t="s">
@@ -2294,10 +2346,10 @@
         <v>1000102</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2315,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
@@ -2330,7 +2382,7 @@
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -2339,10 +2391,10 @@
         <v>1000201</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2351,7 +2403,7 @@
         <v>15011032</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
@@ -2360,7 +2412,7 @@
         <v>10001</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35">
@@ -2370,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P35" t="s">
         <v>45</v>
@@ -2387,10 +2439,10 @@
         <v>1000202</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2399,7 +2451,7 @@
         <v>15011033</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H36" s="1">
         <v>10001</v>
@@ -2408,7 +2460,7 @@
         <v>10001</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36">
@@ -2418,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
         <v>45</v>
@@ -2435,10 +2487,10 @@
         <v>1000210</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2447,7 +2499,7 @@
         <v>15011034</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H37" s="1">
         <v>10001</v>
@@ -2456,7 +2508,7 @@
         <v>10001</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37">
@@ -2466,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s">
         <v>45</v>
@@ -2483,13 +2535,13 @@
     </row>
     <row r="38" ht="12" customHeight="1" spans="10:11">
       <c r="J38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="10:11">
       <c r="J39" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K39" s="9"/>
     </row>
@@ -2498,10 +2550,10 @@
         <v>1200001</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2519,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40">
@@ -2543,12 +2595,12 @@
     </row>
     <row r="41" spans="10:10">
       <c r="J41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -2556,10 +2608,10 @@
         <v>1200021</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2577,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>43</v>
@@ -2603,7 +2655,7 @@
     </row>
     <row r="44" spans="10:11">
       <c r="J44" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -2612,10 +2664,10 @@
         <v>1200101</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2624,7 +2676,7 @@
         <v>15011032</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H45" s="1">
         <v>10001</v>
@@ -2633,7 +2685,7 @@
         <v>101</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45">
@@ -2643,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P45" t="s">
         <v>45</v>
@@ -2660,10 +2712,10 @@
         <v>1200102</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2672,7 +2724,7 @@
         <v>15011033</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H46" s="1">
         <v>10001</v>
@@ -2681,7 +2733,7 @@
         <v>101</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46">
@@ -2691,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P46" t="s">
         <v>45</v>
@@ -2708,10 +2760,10 @@
         <v>1300101</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2720,7 +2772,7 @@
         <v>15011032</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H50" s="1">
         <v>10001</v>
@@ -2729,7 +2781,7 @@
         <v>10001</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50">
@@ -2739,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P50" t="s">
         <v>45</v>
@@ -2762,10 +2814,10 @@
         <v>1300102</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2774,7 +2826,7 @@
         <v>15011033</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H52" s="1">
         <v>10001</v>
@@ -2783,7 +2835,7 @@
         <v>10001</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52">
@@ -2793,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P52" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -253,7 +253,7 @@
     <t>将灵（承灵召唤物）</t>
   </si>
   <si>
-    <t>2502101</t>
+    <t>2502101,2502201,2502301</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1396,12 +1396,12 @@
   <sheetPr/>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="J3" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>2006301</t>
+  </si>
+  <si>
+    <t>测试技能角色</t>
+  </si>
+  <si>
+    <t>2006101,2801101</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -1397,11 +1403,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="I1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1837,10 +1843,61 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="7:11">
-      <c r="G10" s="7"/>
-      <c r="H10" s="1"/>
-      <c r="K10" s="2"/>
+    <row r="10" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1000007</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>15011034</v>
+      </c>
+      <c r="G10" s="6">
+        <v>10006</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10">
+        <v>15003503</v>
+      </c>
+      <c r="S10">
+        <v>15003603</v>
+      </c>
     </row>
     <row r="11" customFormat="1" spans="7:11">
       <c r="G11" s="7"/>
@@ -1874,10 +1931,10 @@
         <v>1000101</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1886,7 +1943,7 @@
         <v>15011101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1">
         <v>10001</v>
@@ -1895,7 +1952,7 @@
         <v>10001</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15">
@@ -1905,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
         <v>45</v>
@@ -1946,10 +2003,10 @@
         <v>1000501</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -1967,7 +2024,7 @@
         <v>10001</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19">
@@ -1977,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
         <v>45</v>
@@ -1997,10 +2054,10 @@
         <v>1000502</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2018,7 +2075,7 @@
         <v>10001</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20">
@@ -2028,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
         <v>45</v>
@@ -2073,10 +2130,10 @@
         <v>1000001</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -2094,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K25" s="9"/>
       <c r="P25" t="s">
@@ -2112,10 +2169,10 @@
         <v>1000002</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -2133,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K26" s="2"/>
       <c r="P26" t="s">
@@ -2154,7 +2211,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -2172,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K27" s="9"/>
       <c r="P27" t="s">
@@ -2193,7 +2250,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -2211,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K28" s="2"/>
       <c r="P28" t="s">
@@ -2232,7 +2289,7 @@
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2250,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K29" s="2"/>
       <c r="P29" t="s">
@@ -2268,10 +2325,10 @@
         <v>1000006</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -2289,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30" s="2"/>
       <c r="P30" t="s">
@@ -2307,10 +2364,10 @@
         <v>1000101</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2328,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K32" s="2"/>
       <c r="P32" t="s">
@@ -2346,10 +2403,10 @@
         <v>1000102</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2367,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
@@ -2382,7 +2439,7 @@
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -2391,10 +2448,10 @@
         <v>1000201</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2403,7 +2460,7 @@
         <v>15011032</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
@@ -2412,7 +2469,7 @@
         <v>10001</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35">
@@ -2422,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
         <v>45</v>
@@ -2439,10 +2496,10 @@
         <v>1000202</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2451,7 +2508,7 @@
         <v>15011033</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H36" s="1">
         <v>10001</v>
@@ -2460,7 +2517,7 @@
         <v>10001</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36">
@@ -2470,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P36" t="s">
         <v>45</v>
@@ -2487,10 +2544,10 @@
         <v>1000210</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2499,7 +2556,7 @@
         <v>15011034</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H37" s="1">
         <v>10001</v>
@@ -2508,7 +2565,7 @@
         <v>10001</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37">
@@ -2518,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P37" t="s">
         <v>45</v>
@@ -2535,13 +2592,13 @@
     </row>
     <row r="38" ht="12" customHeight="1" spans="10:11">
       <c r="J38" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="10:11">
       <c r="J39" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K39" s="9"/>
     </row>
@@ -2550,10 +2607,10 @@
         <v>1200001</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2571,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40">
@@ -2595,12 +2652,12 @@
     </row>
     <row r="41" spans="10:10">
       <c r="J41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -2608,10 +2665,10 @@
         <v>1200021</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2629,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>43</v>
@@ -2655,7 +2712,7 @@
     </row>
     <row r="44" spans="10:11">
       <c r="J44" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -2664,10 +2721,10 @@
         <v>1200101</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2676,7 +2733,7 @@
         <v>15011032</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H45" s="1">
         <v>10001</v>
@@ -2685,7 +2742,7 @@
         <v>101</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45">
@@ -2695,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s">
         <v>45</v>
@@ -2712,10 +2769,10 @@
         <v>1200102</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2724,7 +2781,7 @@
         <v>15011033</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H46" s="1">
         <v>10001</v>
@@ -2733,7 +2790,7 @@
         <v>101</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46">
@@ -2743,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P46" t="s">
         <v>45</v>
@@ -2760,10 +2817,10 @@
         <v>1300101</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2772,7 +2829,7 @@
         <v>15011032</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H50" s="1">
         <v>10001</v>
@@ -2781,7 +2838,7 @@
         <v>10001</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50">
@@ -2791,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P50" t="s">
         <v>45</v>
@@ -2814,10 +2871,10 @@
         <v>1300102</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2826,7 +2883,7 @@
         <v>15011033</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H52" s="1">
         <v>10001</v>
@@ -2835,7 +2892,7 @@
         <v>10001</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52">
@@ -2845,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P52" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="15750" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>测试技能角色</t>
   </si>
   <si>
-    <t>2006101,2801101</t>
+    <t>2006101,2801101,2801201</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -1403,11 +1403,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="I1" activePane="bottomLeft"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="I1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>测试技能角色</t>
   </si>
   <si>
-    <t>2006101,2801101,2801201</t>
+    <t>2006101,2801301</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -1407,7 +1407,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="15780" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -235,7 +235,7 @@
     <t>测试技能角色</t>
   </si>
   <si>
-    <t>2006101,2801301</t>
+    <t>2006101,2801501</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>2502101,2502201,2502301</t>
+  </si>
+  <si>
+    <t>自爆人（召唤物）</t>
+  </si>
+  <si>
+    <t>2502101,2801601</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1403,11 +1409,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="I1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2104,12 +2110,56 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="J22" s="9"/>
+    <row r="22" customFormat="1" spans="1:19">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1000801</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>15011104</v>
+      </c>
+      <c r="G22">
+        <v>20801</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I22">
+        <v>10001</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="K22" s="9"/>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R22">
+        <v>15003501</v>
+      </c>
+      <c r="S22">
+        <v>15003601</v>
+      </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="3"/>
@@ -2130,10 +2180,10 @@
         <v>1000001</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -2151,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K25" s="9"/>
       <c r="P25" t="s">
@@ -2169,10 +2219,10 @@
         <v>1000002</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -2190,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26" s="2"/>
       <c r="P26" t="s">
@@ -2211,7 +2261,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -2229,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K27" s="9"/>
       <c r="P27" t="s">
@@ -2250,7 +2300,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -2268,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K28" s="2"/>
       <c r="P28" t="s">
@@ -2289,7 +2339,7 @@
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2307,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K29" s="2"/>
       <c r="P29" t="s">
@@ -2325,10 +2375,10 @@
         <v>1000006</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -2346,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K30" s="2"/>
       <c r="P30" t="s">
@@ -2364,10 +2414,10 @@
         <v>1000101</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2385,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K32" s="2"/>
       <c r="P32" t="s">
@@ -2403,10 +2453,10 @@
         <v>1000102</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2424,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
@@ -2439,7 +2489,7 @@
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -2460,7 +2510,7 @@
         <v>15011032</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H35" s="1">
         <v>10001</v>
@@ -2469,7 +2519,7 @@
         <v>10001</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35">
@@ -2496,10 +2546,10 @@
         <v>1000202</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2508,7 +2558,7 @@
         <v>15011033</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H36" s="1">
         <v>10001</v>
@@ -2517,7 +2567,7 @@
         <v>10001</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36">
@@ -2527,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P36" t="s">
         <v>45</v>
@@ -2544,10 +2594,10 @@
         <v>1000210</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2556,7 +2606,7 @@
         <v>15011034</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H37" s="1">
         <v>10001</v>
@@ -2565,7 +2615,7 @@
         <v>10001</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37">
@@ -2575,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P37" t="s">
         <v>45</v>
@@ -2592,13 +2642,13 @@
     </row>
     <row r="38" ht="12" customHeight="1" spans="10:11">
       <c r="J38" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="10:11">
       <c r="J39" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K39" s="9"/>
     </row>
@@ -2607,10 +2657,10 @@
         <v>1200001</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2628,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40">
@@ -2652,12 +2702,12 @@
     </row>
     <row r="41" spans="10:10">
       <c r="J41" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -2665,10 +2715,10 @@
         <v>1200021</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2686,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>43</v>
@@ -2712,7 +2762,7 @@
     </row>
     <row r="44" spans="10:11">
       <c r="J44" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -2721,7 +2771,7 @@
         <v>1200101</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
         <v>57</v>
@@ -2733,7 +2783,7 @@
         <v>15011032</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H45" s="1">
         <v>10001</v>
@@ -2742,7 +2792,7 @@
         <v>101</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45">
@@ -2769,10 +2819,10 @@
         <v>1200102</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2781,7 +2831,7 @@
         <v>15011033</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H46" s="1">
         <v>10001</v>
@@ -2790,7 +2840,7 @@
         <v>101</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46">
@@ -2800,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P46" t="s">
         <v>45</v>
@@ -2817,10 +2867,10 @@
         <v>1300101</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2829,7 +2879,7 @@
         <v>15011032</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H50" s="1">
         <v>10001</v>
@@ -2838,7 +2888,7 @@
         <v>10001</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50">
@@ -2871,10 +2921,10 @@
         <v>1300102</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2883,7 +2933,7 @@
         <v>15011033</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H52" s="1">
         <v>10001</v>
@@ -2892,7 +2942,7 @@
         <v>10001</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52">
@@ -2902,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P52" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -235,7 +235,7 @@
     <t>测试技能角色</t>
   </si>
   <si>
-    <t>2006101,2801501</t>
+    <t>2006101,2006201,2801701</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -1409,11 +1409,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H3" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -235,7 +235,7 @@
     <t>测试技能角色</t>
   </si>
   <si>
-    <t>2006101,2006201,2801701</t>
+    <t>2006101,2801801</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -1409,11 +1409,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="G1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="I1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1804,7 +1804,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -235,7 +235,7 @@
     <t>测试技能角色</t>
   </si>
   <si>
-    <t>2006101,2801801</t>
+    <t>2006101,2802101</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -1408,12 +1408,12 @@
   <sheetPr/>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="I1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="G4" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="10890"/>
+    <workbookView windowWidth="16005" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>测试技能角色</t>
   </si>
   <si>
-    <t>2006101,2802101</t>
+    <t>2006101,2005201</t>
   </si>
   <si>
     <t>怪物1</t>
@@ -1409,11 +1409,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="G4" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H4" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="10890"/>
+    <workbookView windowWidth="16530" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
     <t>自爆人（召唤物）</t>
   </si>
   <si>
-    <t>2502101,2801601</t>
+    <t>2502101,2580101</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1408,12 +1408,12 @@
   <sheetPr/>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H4" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16530" windowHeight="10890"/>
+    <workbookView windowWidth="17280" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1409,11 +1409,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="A1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="10890"/>
+    <workbookView windowWidth="16065" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>2003101,2003201</t>
+    <t>2003101,2003201,2102101</t>
   </si>
   <si>
     <t>2003301</t>
@@ -1409,11 +1409,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="A1" activePane="bottomLeft"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16065" windowHeight="11430"/>
+    <workbookView windowWidth="22665" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>2003101,2003201,2102101</t>
+    <t>2003101,2003201,2103101</t>
   </si>
   <si>
     <t>2003301</t>
@@ -1413,7 +1413,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="10095"/>
+    <workbookView windowWidth="16065" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>2003101,2003201,2103101</t>
+    <t>2003101,2003201,2103201</t>
   </si>
   <si>
     <t>2003301</t>
@@ -1413,7 +1413,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16065" windowHeight="11430"/>
+    <workbookView windowWidth="19305" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>2003101,2003201,2103201</t>
+    <t>2003101,2003201,2103301</t>
   </si>
   <si>
     <t>2003301</t>
@@ -1413,7 +1413,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="11430"/>
+    <workbookView windowWidth="15945" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,12 +560,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1409,11 +1409,11 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15011034</v>
+        <v>15011036</v>
       </c>
       <c r="G9" s="6">
         <v>10006</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15945" windowHeight="11430"/>
+    <workbookView windowWidth="31460" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -65,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -190,6 +177,21 @@
     <t>全身像资源id</t>
   </si>
   <si>
+    <t>隐墨</t>
+  </si>
+  <si>
+    <t>2001101,2001201</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>BaseAI</t>
+  </si>
+  <si>
+    <t>凤紫夕</t>
+  </si>
+  <si>
     <t>唐依</t>
   </si>
   <si>
@@ -199,12 +201,6 @@
     <t>2003301</t>
   </si>
   <si>
-    <t>1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>BaseAI</t>
-  </si>
-  <si>
     <t>夜魂</t>
   </si>
   <si>
@@ -275,9 +271,6 @@
   </si>
   <si>
     <t>2001001,2001002,2001003,2001004,2001005,2001006</t>
-  </si>
-  <si>
-    <t>凤紫夕</t>
   </si>
   <si>
     <t>锦衣卫副千户</t>
@@ -400,7 +393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1406,17 +1399,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomLeft"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1552,7 +1545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:19">
+    <row r="3" ht="68" spans="1:19">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1625,110 +1618,59 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" customFormat="1" spans="1:19">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1000003</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="3:11">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1000001</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>15011033</v>
-      </c>
-      <c r="G6" s="6">
-        <v>10003</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>15011031</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
         <v>43</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P7" t="s">
         <v>44</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6">
-        <v>15003503</v>
-      </c>
-      <c r="S6">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="15" customHeight="1" spans="1:19">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1000004</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>15011034</v>
-      </c>
-      <c r="G7" s="6">
-        <v>10004</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
       </c>
       <c r="R7">
         <v>15003503</v>
@@ -1737,27 +1679,27 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:19">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1000005</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
+        <v>1000002</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15011035</v>
+        <v>15011032</v>
       </c>
       <c r="G8" s="6">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1765,82 +1707,57 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:19">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1000003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>15011033</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s">
         <v>44</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8">
-        <v>15003503</v>
-      </c>
-      <c r="S8">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="15" customHeight="1" spans="1:19">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1000006</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>15011036</v>
-      </c>
-      <c r="G9" s="6">
-        <v>10006</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" t="s">
-        <v>45</v>
       </c>
       <c r="R9">
         <v>15003503</v>
@@ -1854,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1000007</v>
+        <v>1000004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1869,7 +1786,7 @@
         <v>15011034</v>
       </c>
       <c r="G10" s="6">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1877,11 +1794,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>54</v>
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1893,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="s">
         <v>44</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
       </c>
       <c r="R10">
         <v>15003503</v>
@@ -1905,23 +1822,173 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="7:11">
-      <c r="G11" s="7"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" spans="7:11">
-      <c r="G12" s="7"/>
-      <c r="H12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" spans="7:11">
-      <c r="G13" s="7"/>
-      <c r="H13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+    <row r="11" customFormat="1" spans="1:19">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1000005</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>15011035</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10005</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11">
+        <v>15003503</v>
+      </c>
+      <c r="S11">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1000006</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>15011036</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10006</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12">
+        <v>15003503</v>
+      </c>
+      <c r="S12">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1000007</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>15011034</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10006</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13">
+        <v>15003503</v>
+      </c>
+      <c r="S13">
+        <v>15003603</v>
+      </c>
     </row>
     <row r="14" customFormat="1" spans="7:11">
       <c r="G14" s="7"/>
@@ -1929,179 +1996,88 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" customFormat="1" spans="1:19">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    <row r="15" customFormat="1" spans="7:11">
+      <c r="G15" s="7"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="7:11">
+      <c r="G16" s="7"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" spans="7:11">
+      <c r="G17" s="7"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:19">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
         <v>1000101</v>
       </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>15011101</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1">
         <v>10001</v>
       </c>
-      <c r="I15">
+      <c r="I18">
         <v>10001</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15">
+      <c r="J18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18">
         <v>15003501</v>
       </c>
-      <c r="S15">
+      <c r="S18">
         <v>15003601</v>
       </c>
     </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>1000501</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>15011104</v>
-      </c>
-      <c r="G19">
-        <v>20501</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I19">
-        <v>10001</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>62</v>
-      </c>
+    <row r="19" spans="3:11">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19">
-        <v>15003501</v>
-      </c>
-      <c r="S19">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:19">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>1000502</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>15011105</v>
-      </c>
-      <c r="G20">
-        <v>20502</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I20">
-        <v>10001</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="s">
-        <v>45</v>
-      </c>
-      <c r="R20">
-        <v>15003501</v>
-      </c>
-      <c r="S20">
-        <v>15003601</v>
-      </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="3"/>
@@ -2110,18 +2086,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" customFormat="1" spans="1:19">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>1000801</v>
+        <v>1000501</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2130,7 +2106,7 @@
         <v>15011104</v>
       </c>
       <c r="G22">
-        <v>20801</v>
+        <v>20501</v>
       </c>
       <c r="H22" s="1">
         <v>10001</v>
@@ -2139,7 +2115,7 @@
         <v>10001</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22">
@@ -2149,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R22">
         <v>15003501</v>
@@ -2161,12 +2137,56 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="J23" s="9"/>
+    <row r="23" customFormat="1" spans="1:19">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1000502</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>15011105</v>
+      </c>
+      <c r="G23">
+        <v>20502</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I23">
+        <v>10001</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="K23" s="9"/>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23">
+        <v>15003501</v>
+      </c>
+      <c r="S23">
+        <v>15003601</v>
+      </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="3"/>
@@ -2175,157 +2195,105 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" customFormat="1" spans="1:19">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
       <c r="B25">
-        <v>1000001</v>
+        <v>1000801</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>15011030</v>
+        <v>15011104</v>
       </c>
       <c r="G25">
-        <v>10001001</v>
+        <v>20801</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>69</v>
       </c>
       <c r="K25" s="9"/>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R25">
         <v>15003501</v>
       </c>
       <c r="S25">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26">
-        <v>1000002</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28">
+        <v>1000001</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>15011001</v>
-      </c>
-      <c r="G26">
-        <v>10001002</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>15011030</v>
+      </c>
+      <c r="G28">
+        <v>10001001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="P26" t="s">
-        <v>45</v>
-      </c>
-      <c r="R26">
-        <v>15003503</v>
-      </c>
-      <c r="S26">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="B27">
-        <v>1000003</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>15011031</v>
-      </c>
-      <c r="G27">
-        <v>10001003</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="P27" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27">
-        <v>15003503</v>
-      </c>
-      <c r="S27">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="2:19">
-      <c r="B28">
-        <v>1000004</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>15011001</v>
-      </c>
-      <c r="G28">
-        <v>10001002</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="9"/>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R28">
-        <v>15003503</v>
+        <v>15003501</v>
       </c>
       <c r="S28">
         <v>15003603</v>
@@ -2333,13 +2301,13 @@
     </row>
     <row r="29" spans="2:19">
       <c r="B29">
-        <v>1000005</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
+        <v>1000002</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2357,11 +2325,11 @@
         <v>2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K29" s="2"/>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R29">
         <v>15003503</v>
@@ -2372,22 +2340,22 @@
     </row>
     <row r="30" spans="2:19">
       <c r="B30">
-        <v>1000006</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
+        <v>1000003</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>15011001</v>
+        <v>15011031</v>
       </c>
       <c r="G30">
-        <v>10001002</v>
+        <v>10001003</v>
       </c>
       <c r="H30" s="1">
         <v>2</v>
@@ -2395,12 +2363,12 @@
       <c r="I30">
         <v>2</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="2"/>
+      <c r="J30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="9"/>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R30">
         <v>15003503</v>
@@ -2409,17 +2377,56 @@
         <v>15003602</v>
       </c>
     </row>
+    <row r="31" ht="15" customHeight="1" spans="2:19">
+      <c r="B31">
+        <v>1000004</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>15011001</v>
+      </c>
+      <c r="G31">
+        <v>10001002</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="P31" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31">
+        <v>15003503</v>
+      </c>
+      <c r="S31">
+        <v>15003603</v>
+      </c>
+    </row>
     <row r="32" spans="2:19">
       <c r="B32">
-        <v>1000101</v>
+        <v>1000005</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32">
+        <v>78</v>
+      </c>
+      <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32">
@@ -2435,14 +2442,14 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K32" s="2"/>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R32">
-        <v>15003501</v>
+        <v>15003503</v>
       </c>
       <c r="S32">
         <v>15003601</v>
@@ -2450,15 +2457,15 @@
     </row>
     <row r="33" spans="2:19">
       <c r="B33">
-        <v>1000102</v>
+        <v>1000006</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3">
         <v>1</v>
       </c>
       <c r="F33">
@@ -2474,11 +2481,11 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R33">
         <v>15003503</v>
@@ -2487,52 +2494,37 @@
         <v>15003602</v>
       </c>
     </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K34" s="2"/>
-    </row>
     <row r="35" spans="2:19">
       <c r="B35">
-        <v>1000201</v>
+        <v>1000101</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>15011032</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>84</v>
+        <v>15011001</v>
+      </c>
+      <c r="G35">
+        <v>10001002</v>
       </c>
       <c r="H35" s="1">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K35" s="2"/>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>60</v>
-      </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R35">
         <v>15003501</v>
@@ -2543,144 +2535,174 @@
     </row>
     <row r="36" spans="2:19">
       <c r="B36">
-        <v>1000202</v>
+        <v>1000102</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>15011033</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>87</v>
+        <v>15011001</v>
+      </c>
+      <c r="G36">
+        <v>10001002</v>
       </c>
       <c r="H36" s="1">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K36" s="2"/>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
-        <v>89</v>
-      </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R36">
-        <v>15003501</v>
+        <v>15003503</v>
       </c>
       <c r="S36">
         <v>15003602</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
-      <c r="B37">
-        <v>1000210</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="37" spans="10:11">
+      <c r="J37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38">
+        <v>1000201</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>15011032</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I38">
+        <v>10001</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38">
+        <v>15003501</v>
+      </c>
+      <c r="S38">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39">
+        <v>1000202</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>15011033</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I39">
+        <v>10001</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D37" t="s">
+      <c r="K39" s="2"/>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
         <v>91</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>15011034</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I37">
-        <v>10001</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>89</v>
-      </c>
-      <c r="P37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
+      <c r="P39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39">
         <v>15003501</v>
       </c>
-      <c r="S37">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="38" ht="12" customHeight="1" spans="10:11">
-      <c r="J38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39" s="9"/>
+      <c r="S39">
+        <v>15003602</v>
+      </c>
     </row>
     <row r="40" spans="2:19">
       <c r="B40">
-        <v>1200001</v>
+        <v>1000210</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>15011030</v>
-      </c>
-      <c r="G40">
-        <v>10001001</v>
+        <v>15011034</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="H40" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K40" s="9"/>
+        <v>10001</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40">
         <v>1</v>
       </c>
@@ -2688,10 +2710,13 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" t="s">
         <v>44</v>
       </c>
-      <c r="P40" t="s">
-        <v>45</v>
+      <c r="Q40">
+        <v>1</v>
       </c>
       <c r="R40">
         <v>15003501</v>
@@ -2700,267 +2725,327 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="41" spans="10:10">
+    <row r="41" ht="12" customHeight="1" spans="10:11">
       <c r="J41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="10:10">
-      <c r="J42" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="2:19">
       <c r="B43">
+        <v>1200001</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>15011030</v>
+      </c>
+      <c r="G43">
+        <v>10001001</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43">
+        <v>15003501</v>
+      </c>
+      <c r="S43">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="B46">
         <v>1200021</v>
       </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>15011031</v>
       </c>
-      <c r="G43">
+      <c r="G46">
         <v>10001003</v>
       </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K43" s="9" t="s">
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
         <v>43</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="P46" t="s">
         <v>44</v>
       </c>
-      <c r="P43" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43">
+      <c r="R46">
         <v>15003503</v>
       </c>
-      <c r="S43">
+      <c r="S46">
         <v>15003603</v>
       </c>
     </row>
-    <row r="44" spans="10:11">
-      <c r="J44" s="9" t="s">
+    <row r="47" spans="10:11">
+      <c r="J47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" customFormat="1" spans="2:19">
+      <c r="B48">
+        <v>1200101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>15011032</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I48">
         <v>101</v>
       </c>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" customFormat="1" spans="2:19">
-      <c r="B45">
-        <v>1200101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="J48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s">
+        <v>44</v>
+      </c>
+      <c r="R48">
+        <v>15003501</v>
+      </c>
+      <c r="S48">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="2:19">
+      <c r="B49">
+        <v>1200102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>15011033</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I49">
+        <v>101</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="R49">
+        <v>15003501</v>
+      </c>
+      <c r="S49">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="2:19">
+      <c r="B53">
+        <v>1300101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>15011032</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="1">
+      <c r="G53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="1">
         <v>10001</v>
       </c>
-      <c r="I45">
-        <v>101</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" t="s">
-        <v>45</v>
-      </c>
-      <c r="R45">
+      <c r="I53">
+        <v>10001</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R53">
         <v>15003501</v>
       </c>
-      <c r="S45">
+      <c r="S53">
         <v>15003601</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="2:19">
-      <c r="B46">
-        <v>1200102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+    <row r="54" customFormat="1" spans="7:11">
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" spans="2:19">
+      <c r="B55">
+        <v>1300102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>15011033</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="G55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="1">
         <v>10001</v>
       </c>
-      <c r="I46">
-        <v>101</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" t="s">
-        <v>89</v>
-      </c>
-      <c r="P46" t="s">
-        <v>45</v>
-      </c>
-      <c r="R46">
+      <c r="I55">
+        <v>10001</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="s">
+        <v>44</v>
+      </c>
+      <c r="R55">
         <v>15003501</v>
       </c>
-      <c r="S46">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="2:19">
-      <c r="B50">
-        <v>1300101</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>15011032</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I50">
-        <v>10001</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50" t="s">
-        <v>60</v>
-      </c>
-      <c r="P50" t="s">
-        <v>45</v>
-      </c>
-      <c r="R50">
-        <v>15003501</v>
-      </c>
-      <c r="S50">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="7:11">
-      <c r="G51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" customFormat="1" spans="2:19">
-      <c r="B52">
-        <v>1300102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>15011033</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H52" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I52">
-        <v>10001</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52" t="s">
-        <v>89</v>
-      </c>
-      <c r="P52" t="s">
-        <v>45</v>
-      </c>
-      <c r="R52">
-        <v>15003501</v>
-      </c>
-      <c r="S52">
+      <c r="S55">
         <v>15003602</v>
       </c>
     </row>
@@ -2981,7 +3066,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2998,7 +3083,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>2001101,2001201</t>
+  </si>
+  <si>
+    <t>2001301</t>
   </si>
   <si>
     <t>1,1,1,1,1,1</t>
@@ -1406,7 +1409,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1656,7 +1659,9 @@
       <c r="J7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -1667,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R7">
         <v>15003503</v>
@@ -1687,10 +1692,10 @@
         <v>1000002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1718,10 +1723,10 @@
         <v>1000003</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1739,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1754,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R9">
         <v>15003503</v>
@@ -1774,10 +1779,10 @@
         <v>1000004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1795,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1810,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R10">
         <v>15003503</v>
@@ -1830,10 +1835,10 @@
         <v>1000005</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1851,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1866,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R11">
         <v>15003503</v>
@@ -1886,10 +1891,10 @@
         <v>1000006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1907,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1922,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R12">
         <v>15003503</v>
@@ -1942,10 +1947,10 @@
         <v>1000007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1963,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1978,10 +1983,10 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R13">
         <v>15003503</v>
@@ -2022,10 +2027,10 @@
         <v>1000101</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2034,7 +2039,7 @@
         <v>15011101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1">
         <v>10001</v>
@@ -2043,7 +2048,7 @@
         <v>10001</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18">
@@ -2053,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R18">
         <v>15003501</v>
@@ -2094,10 +2099,10 @@
         <v>1000501</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2115,7 +2120,7 @@
         <v>10001</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22">
@@ -2125,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R22">
         <v>15003501</v>
@@ -2145,10 +2150,10 @@
         <v>1000502</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2166,7 +2171,7 @@
         <v>10001</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23">
@@ -2176,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R23">
         <v>15003501</v>
@@ -2203,10 +2208,10 @@
         <v>1000801</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2224,7 +2229,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25">
@@ -2234,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R25">
         <v>15003501</v>
@@ -2265,10 +2270,10 @@
         <v>1000001</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -2286,11 +2291,11 @@
         <v>1</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K28" s="9"/>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R28">
         <v>15003501</v>
@@ -2304,10 +2309,10 @@
         <v>1000002</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2325,11 +2330,11 @@
         <v>2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K29" s="2"/>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R29">
         <v>15003503</v>
@@ -2343,10 +2348,10 @@
         <v>1000003</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -2364,11 +2369,11 @@
         <v>2</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" s="9"/>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R30">
         <v>15003503</v>
@@ -2382,10 +2387,10 @@
         <v>1000004</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -2403,11 +2408,11 @@
         <v>2</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K31" s="2"/>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R31">
         <v>15003503</v>
@@ -2421,10 +2426,10 @@
         <v>1000005</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -2442,11 +2447,11 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K32" s="2"/>
       <c r="P32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R32">
         <v>15003503</v>
@@ -2460,10 +2465,10 @@
         <v>1000006</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -2481,11 +2486,11 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R33">
         <v>15003503</v>
@@ -2499,10 +2504,10 @@
         <v>1000101</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2520,11 +2525,11 @@
         <v>2</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K35" s="2"/>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R35">
         <v>15003501</v>
@@ -2538,10 +2543,10 @@
         <v>1000102</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2559,11 +2564,11 @@
         <v>2</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K36" s="2"/>
       <c r="P36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R36">
         <v>15003503</v>
@@ -2574,7 +2579,7 @@
     </row>
     <row r="37" spans="10:11">
       <c r="J37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -2583,10 +2588,10 @@
         <v>1000201</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2595,7 +2600,7 @@
         <v>15011032</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" s="1">
         <v>10001</v>
@@ -2604,7 +2609,7 @@
         <v>10001</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38">
@@ -2614,10 +2619,10 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R38">
         <v>15003501</v>
@@ -2631,10 +2636,10 @@
         <v>1000202</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2643,7 +2648,7 @@
         <v>15011033</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" s="1">
         <v>10001</v>
@@ -2652,7 +2657,7 @@
         <v>10001</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39">
@@ -2662,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R39">
         <v>15003501</v>
@@ -2679,10 +2684,10 @@
         <v>1000210</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2691,7 +2696,7 @@
         <v>15011034</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40" s="1">
         <v>10001</v>
@@ -2700,7 +2705,7 @@
         <v>10001</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40">
@@ -2710,10 +2715,10 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -2727,13 +2732,13 @@
     </row>
     <row r="41" ht="12" customHeight="1" spans="10:11">
       <c r="J41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="10:11">
       <c r="J42" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K42" s="9"/>
     </row>
@@ -2742,10 +2747,10 @@
         <v>1200001</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2763,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43">
@@ -2773,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R43">
         <v>15003501</v>
@@ -2787,12 +2792,12 @@
     </row>
     <row r="44" spans="10:10">
       <c r="J44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="10:10">
       <c r="J45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -2800,10 +2805,10 @@
         <v>1200021</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2821,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -2833,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R46">
         <v>15003503</v>
@@ -2847,7 +2852,7 @@
     </row>
     <row r="47" spans="10:11">
       <c r="J47" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K47" s="9"/>
     </row>
@@ -2856,10 +2861,10 @@
         <v>1200101</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2868,7 +2873,7 @@
         <v>15011032</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" s="1">
         <v>10001</v>
@@ -2877,7 +2882,7 @@
         <v>101</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48">
@@ -2887,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R48">
         <v>15003501</v>
@@ -2904,10 +2909,10 @@
         <v>1200102</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2916,7 +2921,7 @@
         <v>15011033</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H49" s="1">
         <v>10001</v>
@@ -2925,7 +2930,7 @@
         <v>101</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49">
@@ -2935,10 +2940,10 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R49">
         <v>15003501</v>
@@ -2952,10 +2957,10 @@
         <v>1300101</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2964,7 +2969,7 @@
         <v>15011032</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" s="1">
         <v>10001</v>
@@ -2973,7 +2978,7 @@
         <v>10001</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53">
@@ -2983,10 +2988,10 @@
         <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R53">
         <v>15003501</v>
@@ -3006,10 +3011,10 @@
         <v>1300102</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3018,7 +3023,7 @@
         <v>15011033</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" s="1">
         <v>10001</v>
@@ -3027,7 +3032,7 @@
         <v>10001</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55">
@@ -3037,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R55">
         <v>15003501</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>凤紫夕</t>
+  </si>
+  <si>
+    <t>2002101</t>
   </si>
   <si>
     <t>唐依</t>
@@ -1405,11 +1408,11 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="D1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1684,7 +1687,7 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1712,8 +1715,31 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="K8" s="9"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8">
+        <v>15003503</v>
+      </c>
+      <c r="S8">
+        <v>15003603</v>
+      </c>
     </row>
     <row r="9" customFormat="1" spans="1:19">
       <c r="A9" t="s">
@@ -1723,10 +1749,10 @@
         <v>1000003</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1744,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1779,10 +1805,10 @@
         <v>1000004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1800,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1835,10 +1861,10 @@
         <v>1000005</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1856,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1891,10 +1917,10 @@
         <v>1000006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1912,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1947,10 +1973,10 @@
         <v>1000007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1968,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2027,10 +2053,10 @@
         <v>1000101</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2039,7 +2065,7 @@
         <v>15011101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1">
         <v>10001</v>
@@ -2048,7 +2074,7 @@
         <v>10001</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18">
@@ -2058,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s">
         <v>45</v>
@@ -2099,10 +2125,10 @@
         <v>1000501</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2120,7 +2146,7 @@
         <v>10001</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22">
@@ -2130,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s">
         <v>45</v>
@@ -2150,10 +2176,10 @@
         <v>1000502</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2171,7 +2197,7 @@
         <v>10001</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23">
@@ -2181,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s">
         <v>45</v>
@@ -2208,10 +2234,10 @@
         <v>1000801</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2229,7 +2255,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25">
@@ -2239,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s">
         <v>45</v>
@@ -2270,10 +2296,10 @@
         <v>1000001</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -2291,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K28" s="9"/>
       <c r="P28" t="s">
@@ -2312,7 +2338,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2330,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K29" s="2"/>
       <c r="P29" t="s">
@@ -2348,10 +2374,10 @@
         <v>1000003</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -2369,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" s="9"/>
       <c r="P30" t="s">
@@ -2387,10 +2413,10 @@
         <v>1000004</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -2408,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31" s="2"/>
       <c r="P31" t="s">
@@ -2426,10 +2452,10 @@
         <v>1000005</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -2447,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K32" s="2"/>
       <c r="P32" t="s">
@@ -2465,10 +2491,10 @@
         <v>1000006</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -2486,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
@@ -2504,10 +2530,10 @@
         <v>1000101</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2525,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K35" s="2"/>
       <c r="P35" t="s">
@@ -2543,10 +2569,10 @@
         <v>1000102</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2564,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K36" s="2"/>
       <c r="P36" t="s">
@@ -2579,7 +2605,7 @@
     </row>
     <row r="37" spans="10:11">
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -2588,10 +2614,10 @@
         <v>1000201</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2600,7 +2626,7 @@
         <v>15011032</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" s="1">
         <v>10001</v>
@@ -2609,7 +2635,7 @@
         <v>10001</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38">
@@ -2619,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s">
         <v>45</v>
@@ -2636,10 +2662,10 @@
         <v>1000202</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2648,7 +2674,7 @@
         <v>15011033</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>10001</v>
@@ -2657,7 +2683,7 @@
         <v>10001</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39">
@@ -2667,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P39" t="s">
         <v>45</v>
@@ -2684,10 +2710,10 @@
         <v>1000210</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2696,7 +2722,7 @@
         <v>15011034</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H40" s="1">
         <v>10001</v>
@@ -2705,7 +2731,7 @@
         <v>10001</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40">
@@ -2715,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P40" t="s">
         <v>45</v>
@@ -2732,13 +2758,13 @@
     </row>
     <row r="41" ht="12" customHeight="1" spans="10:11">
       <c r="J41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="10:11">
       <c r="J42" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K42" s="9"/>
     </row>
@@ -2747,10 +2773,10 @@
         <v>1200001</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2768,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43">
@@ -2792,12 +2818,12 @@
     </row>
     <row r="44" spans="10:10">
       <c r="J44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="10:10">
       <c r="J45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -2805,10 +2831,10 @@
         <v>1200021</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2826,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -2852,7 +2878,7 @@
     </row>
     <row r="47" spans="10:11">
       <c r="J47" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K47" s="9"/>
     </row>
@@ -2861,10 +2887,10 @@
         <v>1200101</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2873,7 +2899,7 @@
         <v>15011032</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" s="1">
         <v>10001</v>
@@ -2882,7 +2908,7 @@
         <v>101</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48">
@@ -2892,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P48" t="s">
         <v>45</v>
@@ -2909,10 +2935,10 @@
         <v>1200102</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2921,7 +2947,7 @@
         <v>15011033</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1">
         <v>10001</v>
@@ -2930,7 +2956,7 @@
         <v>101</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49">
@@ -2940,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P49" t="s">
         <v>45</v>
@@ -2957,10 +2983,10 @@
         <v>1300101</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2969,7 +2995,7 @@
         <v>15011032</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" s="1">
         <v>10001</v>
@@ -2978,7 +3004,7 @@
         <v>10001</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53">
@@ -2988,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P53" t="s">
         <v>45</v>
@@ -3011,10 +3037,10 @@
         <v>1300102</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3023,7 +3049,7 @@
         <v>15011033</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1">
         <v>10001</v>
@@ -3032,7 +3058,7 @@
         <v>10001</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55">
@@ -3042,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P55" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31460" windowHeight="18120"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,7 +208,7 @@
     <t>凤紫夕</t>
   </si>
   <si>
-    <t>2002101</t>
+    <t>2002101,2002201</t>
   </si>
   <si>
     <t>唐依</t>
@@ -399,7 +412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1408,14 +1421,14 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="D1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8:S8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1551,7 +1564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="68" spans="1:19">
+    <row r="3" ht="54" spans="1:19">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1687,7 +1700,7 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" ht="12" customHeight="1" spans="1:19">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3110,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3114,7 +3127,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
   <si>
     <t>#</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>2002101,2002201</t>
+  </si>
+  <si>
+    <t>2002301</t>
   </si>
   <si>
     <t>唐依</t>
@@ -1421,11 +1424,11 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomLeft"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1731,7 +1734,9 @@
       <c r="J8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L8">
         <v>1</v>
       </c>
@@ -1762,10 +1767,10 @@
         <v>1000003</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1783,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1818,10 +1823,10 @@
         <v>1000004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1839,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1874,10 +1879,10 @@
         <v>1000005</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1895,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1930,10 +1935,10 @@
         <v>1000006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1951,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1986,10 +1991,10 @@
         <v>1000007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2007,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2066,10 +2071,10 @@
         <v>1000101</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2078,7 +2083,7 @@
         <v>15011101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1">
         <v>10001</v>
@@ -2087,7 +2092,7 @@
         <v>10001</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18">
@@ -2097,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P18" t="s">
         <v>45</v>
@@ -2138,10 +2143,10 @@
         <v>1000501</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2159,7 +2164,7 @@
         <v>10001</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22">
@@ -2169,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P22" t="s">
         <v>45</v>
@@ -2189,10 +2194,10 @@
         <v>1000502</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2210,7 +2215,7 @@
         <v>10001</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23">
@@ -2220,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P23" t="s">
         <v>45</v>
@@ -2247,10 +2252,10 @@
         <v>1000801</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2268,7 +2273,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25">
@@ -2278,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P25" t="s">
         <v>45</v>
@@ -2309,10 +2314,10 @@
         <v>1000001</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -2330,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K28" s="9"/>
       <c r="P28" t="s">
@@ -2351,7 +2356,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2369,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K29" s="2"/>
       <c r="P29" t="s">
@@ -2387,10 +2392,10 @@
         <v>1000003</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -2408,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K30" s="9"/>
       <c r="P30" t="s">
@@ -2426,10 +2431,10 @@
         <v>1000004</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -2447,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K31" s="2"/>
       <c r="P31" t="s">
@@ -2465,10 +2470,10 @@
         <v>1000005</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -2486,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K32" s="2"/>
       <c r="P32" t="s">
@@ -2504,10 +2509,10 @@
         <v>1000006</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -2525,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
@@ -2543,10 +2548,10 @@
         <v>1000101</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2564,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K35" s="2"/>
       <c r="P35" t="s">
@@ -2582,10 +2587,10 @@
         <v>1000102</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2603,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K36" s="2"/>
       <c r="P36" t="s">
@@ -2618,7 +2623,7 @@
     </row>
     <row r="37" spans="10:11">
       <c r="J37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -2627,10 +2632,10 @@
         <v>1000201</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2639,7 +2644,7 @@
         <v>15011032</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" s="1">
         <v>10001</v>
@@ -2648,7 +2653,7 @@
         <v>10001</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38">
@@ -2658,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P38" t="s">
         <v>45</v>
@@ -2675,10 +2680,10 @@
         <v>1000202</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2687,7 +2692,7 @@
         <v>15011033</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" s="1">
         <v>10001</v>
@@ -2696,7 +2701,7 @@
         <v>10001</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39">
@@ -2706,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P39" t="s">
         <v>45</v>
@@ -2723,10 +2728,10 @@
         <v>1000210</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2735,7 +2740,7 @@
         <v>15011034</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H40" s="1">
         <v>10001</v>
@@ -2744,7 +2749,7 @@
         <v>10001</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40">
@@ -2754,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P40" t="s">
         <v>45</v>
@@ -2771,13 +2776,13 @@
     </row>
     <row r="41" ht="12" customHeight="1" spans="10:11">
       <c r="J41" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="10:11">
       <c r="J42" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K42" s="9"/>
     </row>
@@ -2786,10 +2791,10 @@
         <v>1200001</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2807,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43">
@@ -2831,12 +2836,12 @@
     </row>
     <row r="44" spans="10:10">
       <c r="J44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="10:10">
       <c r="J45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -2844,10 +2849,10 @@
         <v>1200021</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2865,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -2891,7 +2896,7 @@
     </row>
     <row r="47" spans="10:11">
       <c r="J47" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K47" s="9"/>
     </row>
@@ -2900,10 +2905,10 @@
         <v>1200101</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2912,7 +2917,7 @@
         <v>15011032</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" s="1">
         <v>10001</v>
@@ -2921,7 +2926,7 @@
         <v>101</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48">
@@ -2931,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P48" t="s">
         <v>45</v>
@@ -2948,10 +2953,10 @@
         <v>1200102</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2960,7 +2965,7 @@
         <v>15011033</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" s="1">
         <v>10001</v>
@@ -2969,7 +2974,7 @@
         <v>101</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49">
@@ -2979,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P49" t="s">
         <v>45</v>
@@ -2996,10 +3001,10 @@
         <v>1300101</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3008,7 +3013,7 @@
         <v>15011032</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H53" s="1">
         <v>10001</v>
@@ -3017,7 +3022,7 @@
         <v>10001</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53">
@@ -3027,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P53" t="s">
         <v>45</v>
@@ -3050,10 +3055,10 @@
         <v>1300102</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3062,7 +3067,7 @@
         <v>15011033</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" s="1">
         <v>10001</v>
@@ -3071,7 +3076,7 @@
         <v>10001</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55">
@@ -3081,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P55" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700"/>
+    <workbookView windowWidth="22590" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
   <si>
     <t>#</t>
   </si>
@@ -250,7 +250,13 @@
     <t>2006301</t>
   </si>
   <si>
-    <t>测试技能角色</t>
+    <t>林清远</t>
+  </si>
+  <si>
+    <t>2007101,2007201</t>
+  </si>
+  <si>
+    <t>叶红衣</t>
   </si>
   <si>
     <t>2006101,2005201</t>
@@ -311,9 +317,6 @@
   </si>
   <si>
     <t>峨眉掌门</t>
-  </si>
-  <si>
-    <t>林清远</t>
   </si>
   <si>
     <t>武当掌门</t>
@@ -575,12 +578,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1421,14 +1424,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="H1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="D1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1846,7 +1849,7 @@
       <c r="J10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L10">
@@ -2000,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>15011034</v>
+        <v>15011037</v>
       </c>
       <c r="G13" s="6">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2014,9 +2017,7 @@
       <c r="J13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="K13" s="9"/>
       <c r="L13">
         <v>1</v>
       </c>
@@ -2039,17 +2040,61 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="7:11">
-      <c r="G14" s="7"/>
-      <c r="H14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" customFormat="1" spans="7:11">
-      <c r="G15" s="7"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1000009</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>15011038</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10006</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14">
+        <v>15003503</v>
+      </c>
+      <c r="S14">
+        <v>15003603</v>
+      </c>
     </row>
     <row r="16" customFormat="1" spans="7:11">
       <c r="G16" s="7"/>
@@ -2063,70 +2108,68 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" customFormat="1" spans="1:19">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
+    <row r="18" customFormat="1" spans="7:11">
+      <c r="G18" s="7"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" customFormat="1" spans="7:11">
+      <c r="G19" s="7"/>
+      <c r="H19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:19">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
         <v>1000101</v>
       </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>15011101</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="1">
         <v>10001</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>10001</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="J20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s">
         <v>45</v>
       </c>
-      <c r="R18">
+      <c r="R20">
         <v>15003501</v>
       </c>
-      <c r="S18">
+      <c r="S20">
         <v>15003601</v>
       </c>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="3"/>
@@ -2135,121 +2178,77 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="3:11">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
         <v>1000501</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>15011104</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <v>20501</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H24" s="1">
         <v>10001</v>
       </c>
-      <c r="I22">
+      <c r="I24">
         <v>10001</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="P24" t="s">
         <v>45</v>
       </c>
-      <c r="R22">
+      <c r="R24">
         <v>15003501</v>
       </c>
-      <c r="S22">
+      <c r="S24">
         <v>15003601</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:19">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>1000502</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>15011105</v>
-      </c>
-      <c r="G23">
-        <v>20502</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I23">
-        <v>10001</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R23">
-        <v>15003501</v>
-      </c>
-      <c r="S23">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
     </row>
     <row r="25" customFormat="1" spans="1:19">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25">
-        <v>1000801</v>
+        <v>1000502</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>71</v>
@@ -2261,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15011104</v>
+        <v>15011105</v>
       </c>
       <c r="G25">
-        <v>20801</v>
+        <v>20502</v>
       </c>
       <c r="H25" s="1">
         <v>10001</v>
@@ -2283,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P25" t="s">
         <v>45</v>
@@ -2302,139 +2301,119 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="3:11">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="J27" s="9"/>
+    <row r="27" customFormat="1" spans="1:19">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1000801</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>15011104</v>
+      </c>
+      <c r="G27">
+        <v>20801</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I27">
+        <v>10001</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28">
-        <v>1000001</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>15011030</v>
-      </c>
-      <c r="G28">
-        <v>10001001</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27">
+        <v>15003501</v>
+      </c>
+      <c r="S27">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="P28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28">
-        <v>15003501</v>
-      </c>
-      <c r="S28">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="B29">
-        <v>1000002</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>15011001</v>
-      </c>
-      <c r="G29">
-        <v>10001002</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="P29" t="s">
-        <v>45</v>
-      </c>
-      <c r="R29">
-        <v>15003503</v>
-      </c>
-      <c r="S29">
-        <v>15003601</v>
-      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:19">
       <c r="B30">
-        <v>1000003</v>
+        <v>1000001</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>15011031</v>
+        <v>15011030</v>
       </c>
       <c r="G30">
-        <v>10001003</v>
+        <v>10001001</v>
       </c>
       <c r="H30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K30" s="9"/>
       <c r="P30" t="s">
         <v>45</v>
       </c>
       <c r="R30">
-        <v>15003503</v>
+        <v>15003501</v>
       </c>
       <c r="S30">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="2:19">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31">
-        <v>1000004</v>
+        <v>1000002</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -2452,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K31" s="2"/>
       <c r="P31" t="s">
@@ -2462,27 +2441,27 @@
         <v>15003503</v>
       </c>
       <c r="S31">
-        <v>15003603</v>
+        <v>15003601</v>
       </c>
     </row>
     <row r="32" spans="2:19">
       <c r="B32">
-        <v>1000005</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
+        <v>1000003</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>15011001</v>
+        <v>15011031</v>
       </c>
       <c r="G32">
-        <v>10001002</v>
+        <v>10001003</v>
       </c>
       <c r="H32" s="1">
         <v>2</v>
@@ -2490,10 +2469,10 @@
       <c r="I32">
         <v>2</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K32" s="2"/>
+      <c r="J32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="9"/>
       <c r="P32" t="s">
         <v>45</v>
       </c>
@@ -2501,18 +2480,18 @@
         <v>15003503</v>
       </c>
       <c r="S32">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="2:19">
       <c r="B33">
-        <v>1000006</v>
-      </c>
-      <c r="C33" t="s">
+        <v>1000004</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -2530,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
@@ -2540,20 +2519,59 @@
         <v>15003503</v>
       </c>
       <c r="S33">
-        <v>15003602</v>
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34">
+        <v>1000005</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>15011001</v>
+      </c>
+      <c r="G34">
+        <v>10001002</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="P34" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34">
+        <v>15003503</v>
+      </c>
+      <c r="S34">
+        <v>15003601</v>
       </c>
     </row>
     <row r="35" spans="2:19">
       <c r="B35">
-        <v>1000101</v>
+        <v>1000006</v>
       </c>
       <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
         <v>84</v>
       </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35">
@@ -2569,178 +2587,121 @@
         <v>2</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K35" s="2"/>
       <c r="P35" t="s">
         <v>45</v>
       </c>
       <c r="R35">
+        <v>15003503</v>
+      </c>
+      <c r="S35">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37">
+        <v>1000101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>15011001</v>
+      </c>
+      <c r="G37">
+        <v>10001002</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="P37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R37">
         <v>15003501</v>
       </c>
-      <c r="S35">
+      <c r="S37">
         <v>15003601</v>
       </c>
-    </row>
-    <row r="36" spans="2:19">
-      <c r="B36">
-        <v>1000102</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>15011001</v>
-      </c>
-      <c r="G36">
-        <v>10001002</v>
-      </c>
-      <c r="H36" s="1">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="P36" t="s">
-        <v>45</v>
-      </c>
-      <c r="R36">
-        <v>15003503</v>
-      </c>
-      <c r="S36">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:19">
       <c r="B38">
-        <v>1000201</v>
+        <v>1000102</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>15011032</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>89</v>
+        <v>15011001</v>
+      </c>
+      <c r="G38">
+        <v>10001002</v>
       </c>
       <c r="H38" s="1">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K38" s="2"/>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="s">
-        <v>66</v>
-      </c>
       <c r="P38" t="s">
         <v>45</v>
       </c>
       <c r="R38">
-        <v>15003501</v>
+        <v>15003503</v>
       </c>
       <c r="S38">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19">
-      <c r="B39">
-        <v>1000202</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>15011033</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I39">
-        <v>10001</v>
-      </c>
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
       <c r="J39" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K39" s="2"/>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>94</v>
-      </c>
-      <c r="P39" t="s">
-        <v>45</v>
-      </c>
-      <c r="R39">
-        <v>15003501</v>
-      </c>
-      <c r="S39">
-        <v>15003602</v>
-      </c>
     </row>
     <row r="40" spans="2:19">
       <c r="B40">
-        <v>1000210</v>
+        <v>1000201</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>15011034</v>
+        <v>15011032</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H40" s="1">
         <v>10001</v>
@@ -2749,7 +2710,7 @@
         <v>10001</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40">
@@ -2759,14 +2720,11 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="P40" t="s">
         <v>45</v>
       </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
       <c r="R40">
         <v>15003501</v>
       </c>
@@ -2774,300 +2732,345 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="41" ht="12" customHeight="1" spans="10:11">
+    <row r="41" spans="2:19">
+      <c r="B41">
+        <v>1000202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>15011033</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I41">
+        <v>10001</v>
+      </c>
       <c r="J41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="R41">
+        <v>15003501</v>
+      </c>
+      <c r="S41">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42">
+        <v>1000210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>15011034</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I42">
+        <v>10001</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="10:11">
-      <c r="J42" s="9" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>15003501</v>
+      </c>
+      <c r="S42">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="43" ht="12" customHeight="1" spans="10:11">
+      <c r="J43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="2:19">
-      <c r="B43">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45">
         <v>1200001</v>
       </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>15011030</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <v>10001001</v>
       </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
         <v>44</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P45" t="s">
         <v>45</v>
       </c>
-      <c r="R43">
+      <c r="R45">
         <v>15003501</v>
       </c>
-      <c r="S43">
+      <c r="S45">
         <v>15003601</v>
       </c>
     </row>
-    <row r="44" spans="10:10">
-      <c r="J44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="10:10">
-      <c r="J45" s="2" t="s">
+    <row r="46" spans="10:10">
+      <c r="J46" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="2:19">
-      <c r="B46">
+    <row r="47" spans="10:10">
+      <c r="J47" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="B48">
         <v>1200021</v>
       </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>15011031</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>10001003</v>
       </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K46" s="9" t="s">
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
         <v>44</v>
-      </c>
-      <c r="P46" t="s">
-        <v>45</v>
-      </c>
-      <c r="R46">
-        <v>15003503</v>
-      </c>
-      <c r="S46">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="47" spans="10:11">
-      <c r="J47" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" customFormat="1" spans="2:19">
-      <c r="B48">
-        <v>1200101</v>
-      </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>15011032</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I48">
-        <v>101</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="s">
-        <v>66</v>
       </c>
       <c r="P48" t="s">
         <v>45</v>
       </c>
       <c r="R48">
+        <v>15003503</v>
+      </c>
+      <c r="S48">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" customFormat="1" spans="2:19">
+      <c r="B50">
+        <v>1200101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>15011032</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I50">
+        <v>101</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="s">
+        <v>45</v>
+      </c>
+      <c r="R50">
         <v>15003501</v>
       </c>
-      <c r="S48">
+      <c r="S50">
         <v>15003601</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="2:19">
-      <c r="B49">
+    <row r="51" customFormat="1" spans="2:19">
+      <c r="B51">
         <v>1200102</v>
       </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>15011033</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H49" s="1">
+      <c r="G51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="1">
         <v>10001</v>
       </c>
-      <c r="I49">
+      <c r="I51">
         <v>101</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
-        <v>94</v>
-      </c>
-      <c r="P49" t="s">
+      <c r="J51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>95</v>
+      </c>
+      <c r="P51" t="s">
         <v>45</v>
       </c>
-      <c r="R49">
+      <c r="R51">
         <v>15003501</v>
       </c>
-      <c r="S49">
+      <c r="S51">
         <v>15003602</v>
       </c>
-    </row>
-    <row r="53" customFormat="1" spans="2:19">
-      <c r="B53">
-        <v>1300101</v>
-      </c>
-      <c r="C53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>15011032</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H53" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I53">
-        <v>10001</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53" t="s">
-        <v>66</v>
-      </c>
-      <c r="P53" t="s">
-        <v>45</v>
-      </c>
-      <c r="R53">
-        <v>15003501</v>
-      </c>
-      <c r="S53">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="7:11">
-      <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
     </row>
     <row r="55" customFormat="1" spans="2:19">
       <c r="B55">
-        <v>1300102</v>
+        <v>1300101</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>15011033</v>
+        <v>15011032</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H55" s="1">
         <v>10001</v>
@@ -3076,7 +3079,7 @@
         <v>10001</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55">
@@ -3086,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="P55" t="s">
         <v>45</v>
@@ -3095,6 +3098,60 @@
         <v>15003501</v>
       </c>
       <c r="S55">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="7:11">
+      <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" customFormat="1" spans="2:19">
+      <c r="B57">
+        <v>1300102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>15011033</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I57">
+        <v>10001</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>95</v>
+      </c>
+      <c r="P57" t="s">
+        <v>45</v>
+      </c>
+      <c r="R57">
+        <v>15003501</v>
+      </c>
+      <c r="S57">
         <v>15003602</v>
       </c>
     </row>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="11700"/>
+    <workbookView windowWidth="17280" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
   <si>
     <t>#</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>2007101,2007201</t>
+  </si>
+  <si>
+    <t>2007301</t>
   </si>
   <si>
     <t>叶红衣</t>
@@ -1427,11 +1430,11 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="D1" activePane="bottomRight"/>
+      <pane xSplit="5220" ySplit="1935" topLeftCell="I1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2017,7 +2020,9 @@
       <c r="J13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="L13">
         <v>1</v>
       </c>
@@ -2048,10 +2053,10 @@
         <v>1000009</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2069,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>60</v>
@@ -2128,10 +2133,10 @@
         <v>1000101</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2140,7 +2145,7 @@
         <v>15011101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" s="1">
         <v>10001</v>
@@ -2149,7 +2154,7 @@
         <v>10001</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20">
@@ -2159,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
         <v>45</v>
@@ -2200,10 +2205,10 @@
         <v>1000501</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2221,7 +2226,7 @@
         <v>10001</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24">
@@ -2231,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s">
         <v>45</v>
@@ -2251,10 +2256,10 @@
         <v>1000502</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2272,7 +2277,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25">
@@ -2282,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P25" t="s">
         <v>45</v>
@@ -2309,10 +2314,10 @@
         <v>1000801</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2330,7 +2335,7 @@
         <v>10001</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27">
@@ -2340,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P27" t="s">
         <v>45</v>
@@ -2371,10 +2376,10 @@
         <v>1000001</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -2392,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" s="9"/>
       <c r="P30" t="s">
@@ -2413,7 +2418,7 @@
         <v>46</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -2431,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K31" s="2"/>
       <c r="P31" t="s">
@@ -2452,7 +2457,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -2470,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K32" s="9"/>
       <c r="P32" t="s">
@@ -2491,7 +2496,7 @@
         <v>52</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -2509,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K33" s="2"/>
       <c r="P33" t="s">
@@ -2530,7 +2535,7 @@
         <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -2548,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K34" s="2"/>
       <c r="P34" t="s">
@@ -2569,7 +2574,7 @@
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -2587,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K35" s="2"/>
       <c r="P35" t="s">
@@ -2605,10 +2610,10 @@
         <v>1000101</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2626,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K37" s="2"/>
       <c r="P37" t="s">
@@ -2644,10 +2649,10 @@
         <v>1000102</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2665,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K38" s="2"/>
       <c r="P38" t="s">
@@ -2680,7 +2685,7 @@
     </row>
     <row r="39" spans="10:11">
       <c r="J39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39" s="2"/>
     </row>
@@ -2689,10 +2694,10 @@
         <v>1000201</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2701,7 +2706,7 @@
         <v>15011032</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1">
         <v>10001</v>
@@ -2710,7 +2715,7 @@
         <v>10001</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40">
@@ -2720,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P40" t="s">
         <v>45</v>
@@ -2737,10 +2742,10 @@
         <v>1000202</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2749,7 +2754,7 @@
         <v>15011033</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H41" s="1">
         <v>10001</v>
@@ -2758,7 +2763,7 @@
         <v>10001</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41">
@@ -2768,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P41" t="s">
         <v>45</v>
@@ -2785,10 +2790,10 @@
         <v>1000210</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2797,7 +2802,7 @@
         <v>15011034</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H42" s="1">
         <v>10001</v>
@@ -2806,7 +2811,7 @@
         <v>10001</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42">
@@ -2816,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P42" t="s">
         <v>45</v>
@@ -2833,13 +2838,13 @@
     </row>
     <row r="43" ht="12" customHeight="1" spans="10:11">
       <c r="J43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="10:11">
       <c r="J44" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -2848,10 +2853,10 @@
         <v>1200001</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2869,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45">
@@ -2893,12 +2898,12 @@
     </row>
     <row r="46" spans="10:10">
       <c r="J46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="2:19">
@@ -2906,10 +2911,10 @@
         <v>1200021</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2927,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>51</v>
@@ -2953,7 +2958,7 @@
     </row>
     <row r="49" spans="10:11">
       <c r="J49" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K49" s="9"/>
     </row>
@@ -2962,10 +2967,10 @@
         <v>1200101</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2974,7 +2979,7 @@
         <v>15011032</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1">
         <v>10001</v>
@@ -2983,7 +2988,7 @@
         <v>101</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50">
@@ -2993,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P50" t="s">
         <v>45</v>
@@ -3010,10 +3015,10 @@
         <v>1200102</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3022,7 +3027,7 @@
         <v>15011033</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H51" s="1">
         <v>10001</v>
@@ -3031,7 +3036,7 @@
         <v>101</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51">
@@ -3041,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P51" t="s">
         <v>45</v>
@@ -3058,10 +3063,10 @@
         <v>1300101</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3070,7 +3075,7 @@
         <v>15011032</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1">
         <v>10001</v>
@@ -3079,7 +3084,7 @@
         <v>10001</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55">
@@ -3089,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P55" t="s">
         <v>45</v>
@@ -3112,10 +3117,10 @@
         <v>1300102</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3124,7 +3129,7 @@
         <v>15011033</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H57" s="1">
         <v>10001</v>
@@ -3133,7 +3138,7 @@
         <v>10001</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57">
@@ -3143,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P57" t="s">
         <v>45</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -1434,7 +1434,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -1434,7 +1434,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="11700"/>
+    <workbookView windowWidth="32560" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -65,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -112,6 +99,9 @@
     <t>skillLevels</t>
   </si>
   <si>
+    <t>originEntityId</t>
+  </si>
+  <si>
     <t>aiScript</t>
   </si>
   <si>
@@ -178,6 +168,9 @@
     <t>技能等级</t>
   </si>
   <si>
+    <t>源实体id，某些情况和这个实体算作一个，如 不同等级的召唤兽都算作一个 id</t>
+  </si>
+  <si>
     <t>AI脚本</t>
   </si>
   <si>
@@ -293,6 +286,21 @@
   </si>
   <si>
     <t>2502101,2580101</t>
+  </si>
+  <si>
+    <t>灰熊大黑 Lv1</t>
+  </si>
+  <si>
+    <t>灰熊大黑 Lv2</t>
+  </si>
+  <si>
+    <t>灰熊大黑 Lv3</t>
+  </si>
+  <si>
+    <t>灰熊大黑 Lv4</t>
+  </si>
+  <si>
+    <t>灰熊大黑 Lv5</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -421,7 +429,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -581,12 +589,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1427,17 +1435,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="I1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1451,11 +1459,12 @@
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="18" max="18" width="11.625" customWidth="1"/>
-    <col min="19" max="19" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="16.1826923076923" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1513,123 +1522,132 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:19">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="68" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="3:11">
@@ -1653,7 +1671,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1661,10 +1679,10 @@
         <v>1000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1682,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1697,19 +1715,19 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7">
+        <v>46</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7">
         <v>15003503</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>15003603</v>
       </c>
     </row>
-    <row r="8" ht="12" customHeight="1" spans="1:19">
+    <row r="8" ht="12" customHeight="1" spans="1:20">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1717,10 +1735,10 @@
         <v>1000002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1738,34 +1756,34 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8">
+      <c r="S8">
         <v>15003503</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>15003603</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:19">
+    <row r="9" customFormat="1" spans="1:20">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1773,10 +1791,10 @@
         <v>1000003</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1794,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1809,19 +1827,19 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9">
         <v>15003503</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>15003603</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" customHeight="1" spans="1:19">
+    <row r="10" customFormat="1" ht="15" customHeight="1" spans="1:20">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1829,10 +1847,10 @@
         <v>1000004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1850,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1865,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10">
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10">
         <v>15003503</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>15003603</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:19">
+    <row r="11" customFormat="1" spans="1:20">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1885,10 +1903,10 @@
         <v>1000005</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1906,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1921,19 +1939,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11">
+        <v>46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11">
         <v>15003503</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>15003603</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:19">
+    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:20">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1941,10 +1959,10 @@
         <v>1000006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1962,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1977,19 +1995,19 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12">
+        <v>46</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12">
         <v>15003503</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>15003603</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:19">
+    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:20">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1997,10 +2015,10 @@
         <v>1000007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2018,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2033,19 +2051,19 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13">
+        <v>46</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13">
         <v>15003503</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>15003603</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:19">
+    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:20">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2053,10 +2071,10 @@
         <v>1000009</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2074,10 +2092,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2089,15 +2107,15 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14">
+        <v>46</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14">
         <v>15003503</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>15003603</v>
       </c>
     </row>
@@ -2125,7 +2143,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" customFormat="1" spans="1:19">
+    <row r="20" customFormat="1" spans="1:20">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2133,10 +2151,10 @@
         <v>1000101</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2145,7 +2163,7 @@
         <v>15011101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1">
         <v>10001</v>
@@ -2154,7 +2172,7 @@
         <v>10001</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20">
@@ -2164,15 +2182,15 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" t="s">
-        <v>45</v>
-      </c>
-      <c r="R20">
+        <v>71</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S20">
         <v>15003501</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>15003601</v>
       </c>
     </row>
@@ -2197,7 +2215,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2205,10 +2223,10 @@
         <v>1000501</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2226,7 +2244,7 @@
         <v>10001</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24">
@@ -2236,19 +2254,19 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" t="s">
-        <v>45</v>
-      </c>
-      <c r="R24">
+        <v>71</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24">
         <v>15003501</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>15003601</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:19">
+    <row r="25" customFormat="1" spans="1:20">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2256,10 +2274,10 @@
         <v>1000502</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2277,7 +2295,7 @@
         <v>10001</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25">
@@ -2287,15 +2305,15 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" t="s">
-        <v>45</v>
-      </c>
-      <c r="R25">
+        <v>71</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25">
         <v>15003501</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>15003601</v>
       </c>
     </row>
@@ -2306,7 +2324,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" customFormat="1" spans="1:19">
+    <row r="27" customFormat="1" spans="1:20">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2314,10 +2332,10 @@
         <v>1000801</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2335,7 +2353,7 @@
         <v>10001</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27">
@@ -2345,316 +2363,359 @@
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27">
+        <v>71</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>47</v>
+      </c>
+      <c r="S27">
         <v>15003501</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>15003601</v>
       </c>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" customFormat="1" spans="3:11">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
+      <c r="H28" s="1"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="3:11">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+    <row r="29" customFormat="1" spans="1:20">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1080011</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>15011104</v>
+      </c>
+      <c r="G29">
+        <v>28011</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I29">
+        <v>10001</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="2:19">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29">
+        <v>1080011</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>47</v>
+      </c>
+      <c r="S29">
+        <v>15003501</v>
+      </c>
+      <c r="T29">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:20">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
       <c r="B30">
-        <v>1000001</v>
+        <v>1080012</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>15011030</v>
+        <v>15011104</v>
       </c>
       <c r="G30">
-        <v>10001001</v>
+        <v>28012</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>10001</v>
+      </c>
+      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="P30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30">
+        <v>1080011</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30">
         <v>15003501</v>
       </c>
-      <c r="S30">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19">
+      <c r="T30">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:20">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
       <c r="B31">
-        <v>1000002</v>
+        <v>1080013</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>15011001</v>
+        <v>15011104</v>
       </c>
       <c r="G31">
-        <v>10001002</v>
+        <v>28013</v>
       </c>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>10001</v>
       </c>
       <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="P31" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31">
-        <v>15003503</v>
+        <v>10001</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31">
+        <v>1080011</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>47</v>
       </c>
       <c r="S31">
+        <v>15003501</v>
+      </c>
+      <c r="T31">
         <v>15003601</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" customFormat="1" spans="1:20">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
       <c r="B32">
-        <v>1000003</v>
+        <v>1080014</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>15011031</v>
+        <v>15011104</v>
       </c>
       <c r="G32">
-        <v>10001003</v>
+        <v>28014</v>
       </c>
       <c r="H32" s="1">
-        <v>2</v>
+        <v>10001</v>
       </c>
       <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" s="9" t="s">
+        <v>10001</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32">
+        <v>1080011</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>47</v>
+      </c>
+      <c r="S32">
+        <v>15003501</v>
+      </c>
+      <c r="T32">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:20">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1080015</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="P32" t="s">
-        <v>45</v>
-      </c>
-      <c r="R32">
-        <v>15003503</v>
-      </c>
-      <c r="S32">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="2:19">
-      <c r="B33">
-        <v>1000004</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>15011104</v>
+      </c>
+      <c r="G33">
+        <v>28015</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I33">
+        <v>10001</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33">
+        <v>1080011</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>47</v>
+      </c>
+      <c r="S33">
+        <v>15003501</v>
+      </c>
+      <c r="T33">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="3:11">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="H34" s="1"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" customFormat="1" spans="3:11">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="H35" s="1"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37">
+        <v>1000001</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>15011001</v>
-      </c>
-      <c r="G33">
-        <v>10001002</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="P33" t="s">
-        <v>45</v>
-      </c>
-      <c r="R33">
-        <v>15003503</v>
-      </c>
-      <c r="S33">
+      <c r="D37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>15011030</v>
+      </c>
+      <c r="G37">
+        <v>10001001</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="Q37" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37">
+        <v>15003501</v>
+      </c>
+      <c r="T37">
         <v>15003603</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
-      <c r="B34">
-        <v>1000005</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>15011001</v>
-      </c>
-      <c r="G34">
-        <v>10001002</v>
-      </c>
-      <c r="H34" s="1">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="P34" t="s">
-        <v>45</v>
-      </c>
-      <c r="R34">
-        <v>15003503</v>
-      </c>
-      <c r="S34">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19">
-      <c r="B35">
-        <v>1000006</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>15011001</v>
-      </c>
-      <c r="G35">
-        <v>10001002</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="P35" t="s">
-        <v>45</v>
-      </c>
-      <c r="R35">
-        <v>15003503</v>
-      </c>
-      <c r="S35">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19">
-      <c r="B37">
-        <v>1000101</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="38" spans="2:20">
+      <c r="B38">
+        <v>1000002</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>15011001</v>
-      </c>
-      <c r="G37">
-        <v>10001002</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="P37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R37">
-        <v>15003501</v>
-      </c>
-      <c r="S37">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38">
-        <v>1000102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="F38">
@@ -2670,397 +2731,479 @@
         <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K38" s="2"/>
-      <c r="P38" t="s">
-        <v>45</v>
-      </c>
-      <c r="R38">
+      <c r="Q38" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38">
         <v>15003503</v>
       </c>
-      <c r="S38">
+      <c r="T38">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39">
+        <v>1000003</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>15011031</v>
+      </c>
+      <c r="G39">
+        <v>10001003</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="Q39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39">
+        <v>15003503</v>
+      </c>
+      <c r="T39">
         <v>15003602</v>
       </c>
     </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="2" t="s">
+    <row r="40" ht="15" customHeight="1" spans="2:20">
+      <c r="B40">
+        <v>1000004</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="2:19">
-      <c r="B40">
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>15011001</v>
+      </c>
+      <c r="G40">
+        <v>10001002</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="Q40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40">
+        <v>15003503</v>
+      </c>
+      <c r="T40">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41">
+        <v>1000005</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>15011001</v>
+      </c>
+      <c r="G41">
+        <v>10001002</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="Q41" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41">
+        <v>15003503</v>
+      </c>
+      <c r="T41">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42">
+        <v>1000006</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>15011001</v>
+      </c>
+      <c r="G42">
+        <v>10001002</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="Q42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42">
+        <v>15003503</v>
+      </c>
+      <c r="T42">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44">
+        <v>1000101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>15011001</v>
+      </c>
+      <c r="G44">
+        <v>10001002</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="Q44" t="s">
+        <v>47</v>
+      </c>
+      <c r="S44">
+        <v>15003501</v>
+      </c>
+      <c r="T44">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45">
+        <v>1000102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>15011001</v>
+      </c>
+      <c r="G45">
+        <v>10001002</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="Q45" t="s">
+        <v>47</v>
+      </c>
+      <c r="S45">
+        <v>15003503</v>
+      </c>
+      <c r="T45">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47">
         <v>1000201</v>
       </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>15011032</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="G47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="1">
         <v>10001</v>
       </c>
-      <c r="I40">
+      <c r="I47">
         <v>10001</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
-        <v>69</v>
-      </c>
-      <c r="P40" t="s">
-        <v>45</v>
-      </c>
-      <c r="R40">
+      <c r="J47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>47</v>
+      </c>
+      <c r="S47">
         <v>15003501</v>
       </c>
-      <c r="S40">
+      <c r="T47">
         <v>15003601</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
-      <c r="B41">
+    <row r="48" spans="2:20">
+      <c r="B48">
         <v>1000202</v>
       </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>15011033</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="G48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="1">
         <v>10001</v>
       </c>
-      <c r="I41">
+      <c r="I48">
         <v>10001</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
-        <v>96</v>
-      </c>
-      <c r="P41" t="s">
-        <v>45</v>
-      </c>
-      <c r="R41">
+      <c r="J48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S48">
         <v>15003501</v>
       </c>
-      <c r="S41">
+      <c r="T48">
         <v>15003602</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
-      <c r="B42">
+    <row r="49" spans="2:20">
+      <c r="B49">
         <v>1000210</v>
       </c>
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>15011034</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="G49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="1">
         <v>10001</v>
       </c>
-      <c r="I42">
+      <c r="I49">
         <v>10001</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
-        <v>96</v>
-      </c>
-      <c r="P42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="R42">
+      <c r="J49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
         <v>15003501</v>
       </c>
-      <c r="S42">
+      <c r="T49">
         <v>15003601</v>
       </c>
     </row>
-    <row r="43" ht="12" customHeight="1" spans="10:11">
-      <c r="J43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="10:11">
-      <c r="J44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="2:19">
-      <c r="B45">
+    <row r="50" ht="12" customHeight="1" spans="10:11">
+      <c r="J50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52">
         <v>1200001</v>
       </c>
-      <c r="C45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>15011030</v>
       </c>
-      <c r="G45">
+      <c r="G52">
         <v>10001001</v>
       </c>
-      <c r="H45" s="1">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45" t="s">
-        <v>44</v>
-      </c>
-      <c r="P45" t="s">
-        <v>45</v>
-      </c>
-      <c r="R45">
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>47</v>
+      </c>
+      <c r="S52">
         <v>15003501</v>
       </c>
-      <c r="S45">
+      <c r="T52">
         <v>15003601</v>
       </c>
     </row>
-    <row r="46" spans="10:10">
-      <c r="J46" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="10:10">
-      <c r="J47" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19">
-      <c r="B48">
+    <row r="53" spans="10:10">
+      <c r="J53" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="B55">
         <v>1200021</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>15011031</v>
-      </c>
-      <c r="G48">
-        <v>10001003</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="s">
-        <v>44</v>
-      </c>
-      <c r="P48" t="s">
-        <v>45</v>
-      </c>
-      <c r="R48">
-        <v>15003503</v>
-      </c>
-      <c r="S48">
-        <v>15003603</v>
-      </c>
-    </row>
-    <row r="49" spans="10:11">
-      <c r="J49" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" customFormat="1" spans="2:19">
-      <c r="B50">
-        <v>1200101</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>15011032</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I50">
-        <v>101</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50" t="s">
-        <v>69</v>
-      </c>
-      <c r="P50" t="s">
-        <v>45</v>
-      </c>
-      <c r="R50">
-        <v>15003501</v>
-      </c>
-      <c r="S50">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="2:19">
-      <c r="B51">
-        <v>1200102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>15011033</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H51" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I51">
-        <v>101</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K51" s="2"/>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51" t="s">
-        <v>96</v>
-      </c>
-      <c r="P51" t="s">
-        <v>45</v>
-      </c>
-      <c r="R51">
-        <v>15003501</v>
-      </c>
-      <c r="S51">
-        <v>15003602</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="2:19">
-      <c r="B55">
-        <v>1300101</v>
       </c>
       <c r="C55" t="s">
         <v>113</v>
@@ -3072,73 +3215,75 @@
         <v>0</v>
       </c>
       <c r="F55">
+        <v>15011031</v>
+      </c>
+      <c r="G55">
+        <v>10001003</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>47</v>
+      </c>
+      <c r="S55">
+        <v>15003503</v>
+      </c>
+      <c r="T55">
+        <v>15003603</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" customFormat="1" spans="2:20">
+      <c r="B57">
+        <v>1200101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <v>15011032</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I55">
-        <v>10001</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K55" s="2"/>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="s">
-        <v>69</v>
-      </c>
-      <c r="P55" t="s">
-        <v>45</v>
-      </c>
-      <c r="R55">
-        <v>15003501</v>
-      </c>
-      <c r="S55">
-        <v>15003601</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="7:11">
-      <c r="G56" s="2"/>
-      <c r="H56" s="1"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" customFormat="1" spans="2:19">
-      <c r="B57">
-        <v>1300102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>15011033</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H57" s="1">
         <v>10001</v>
       </c>
       <c r="I57">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57">
@@ -3148,15 +3293,165 @@
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>96</v>
-      </c>
-      <c r="P57" t="s">
-        <v>45</v>
-      </c>
-      <c r="R57">
+        <v>71</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>47</v>
+      </c>
+      <c r="S57">
         <v>15003501</v>
       </c>
-      <c r="S57">
+      <c r="T57">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="2:20">
+      <c r="B58">
+        <v>1200102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>15011033</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I58">
+        <v>101</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>47</v>
+      </c>
+      <c r="S58">
+        <v>15003501</v>
+      </c>
+      <c r="T58">
+        <v>15003602</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="2:20">
+      <c r="B62">
+        <v>1300101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>15011032</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I62">
+        <v>10001</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>47</v>
+      </c>
+      <c r="S62">
+        <v>15003501</v>
+      </c>
+      <c r="T62">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="7:11">
+      <c r="G63" s="2"/>
+      <c r="H63" s="1"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" customFormat="1" spans="2:20">
+      <c r="B64">
+        <v>1300102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>15011033</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I64">
+        <v>10001</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>47</v>
+      </c>
+      <c r="S64">
+        <v>15003501</v>
+      </c>
+      <c r="T64">
         <v>15003602</v>
       </c>
     </row>
@@ -3177,7 +3472,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3194,7 +3489,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32560" windowHeight="18120"/>
+    <workbookView windowWidth="16635" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -429,7 +442,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -589,12 +602,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1437,15 +1450,15 @@
   <sheetPr/>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29:P33"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1459,7 +1472,7 @@
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="16.1826923076923" customWidth="1"/>
+    <col min="16" max="16" width="16.1833333333333" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
     <col min="20" max="20" width="13.25" customWidth="1"/>
   </cols>
@@ -1588,7 +1601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="68" spans="1:20">
+    <row r="3" ht="54" spans="1:20">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2068,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>1000009</v>
+        <v>1000008</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>66</v>
@@ -3472,7 +3485,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3489,7 +3502,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11700"/>
+    <workbookView windowWidth="28580" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -65,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="129">
   <si>
     <t>#</t>
   </si>
@@ -100,16 +87,16 @@
     <t>ultimateSkillId</t>
   </si>
   <si>
-    <t>level</t>
+    <t>level_pre</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>skillLevels</t>
+    <t>star_pre</t>
+  </si>
+  <si>
+    <t>skillLevels_pre</t>
   </si>
   <si>
     <t>originEntityId</t>
@@ -283,6 +270,24 @@
     <t>1,1</t>
   </si>
   <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>3101201</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>2103101,2103201,2103301,2103401,2103501</t>
+  </si>
+  <si>
     <t>兽灵（承灵召唤物）</t>
   </si>
   <si>
@@ -365,9 +370,6 @@
   </si>
   <si>
     <t>2201101</t>
-  </si>
-  <si>
-    <t>怪物2</t>
   </si>
   <si>
     <t>10003002</t>
@@ -442,7 +444,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -602,12 +604,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1069,14 +1071,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1450,15 +1455,15 @@
   <sheetPr/>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <pane xSplit="5220" ySplit="1935" topLeftCell="F1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4460" ySplit="2880" topLeftCell="D1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1470,9 +1475,11 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="47.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="16.1833333333333" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="11.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.1826923076923" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
     <col min="20" max="20" width="13.25" customWidth="1"/>
   </cols>
@@ -1481,7 +1488,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1511,16 +1518,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1573,16 +1580,16 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P2" t="s">
@@ -1601,23 +1608,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:20">
+    <row r="3" ht="68" spans="1:20">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
@@ -1629,22 +1636,22 @@
       <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="P3" t="s">
@@ -1664,25 +1671,25 @@
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
@@ -1691,10 +1698,10 @@
       <c r="B7">
         <v>1000001</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E7">
@@ -1703,7 +1710,7 @@
       <c r="F7">
         <v>15011031</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>10001</v>
       </c>
       <c r="H7" s="1">
@@ -1712,22 +1719,22 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q7" t="s">
@@ -1747,10 +1754,10 @@
       <c r="B8">
         <v>1000002</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E8">
@@ -1759,7 +1766,7 @@
       <c r="F8">
         <v>15011032</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>10002</v>
       </c>
       <c r="H8" s="1">
@@ -1768,22 +1775,22 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q8" t="s">
@@ -1815,7 +1822,7 @@
       <c r="F9">
         <v>15011033</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>10003</v>
       </c>
       <c r="H9" s="1">
@@ -1824,22 +1831,22 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q9" t="s">
@@ -1859,19 +1866,19 @@
       <c r="B10">
         <v>1000004</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10">
         <v>15011034</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>10004</v>
       </c>
       <c r="H10" s="1">
@@ -1883,19 +1890,19 @@
       <c r="J10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q10" t="s">
@@ -1927,7 +1934,7 @@
       <c r="F11">
         <v>15011035</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>10005</v>
       </c>
       <c r="H11" s="1">
@@ -1936,22 +1943,22 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q11" t="s">
@@ -1971,19 +1978,19 @@
       <c r="B12">
         <v>1000006</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12">
         <v>15011036</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>10006</v>
       </c>
       <c r="H12" s="1">
@@ -1992,22 +1999,22 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q12" t="s">
@@ -2027,19 +2034,19 @@
       <c r="B13">
         <v>1000007</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0</v>
       </c>
       <c r="F13">
         <v>15011037</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>10007</v>
       </c>
       <c r="H13" s="1">
@@ -2048,22 +2055,22 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q13" t="s">
@@ -2083,19 +2090,19 @@
       <c r="B14">
         <v>1000008</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>0</v>
       </c>
       <c r="F14">
         <v>15011038</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>10006</v>
       </c>
       <c r="H14" s="1">
@@ -2104,22 +2111,22 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q14" t="s">
@@ -2132,29 +2139,41 @@
         <v>15003603</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="7:11">
-      <c r="G16" s="7"/>
+    <row r="16" customFormat="1" spans="7:15">
+      <c r="G16" s="8"/>
       <c r="H16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" customFormat="1" spans="7:11">
-      <c r="G17" s="7"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" customFormat="1" spans="7:15">
+      <c r="G17" s="8"/>
       <c r="H17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" customFormat="1" spans="7:11">
-      <c r="G18" s="7"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" customFormat="1" spans="7:15">
+      <c r="G18" s="8"/>
       <c r="H18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" customFormat="1" spans="7:11">
-      <c r="G19" s="7"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" customFormat="1" spans="7:15">
+      <c r="G19" s="8"/>
       <c r="H19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" customFormat="1" spans="1:20">
       <c r="A20" t="s">
@@ -2175,26 +2194,26 @@
       <c r="F20">
         <v>15011101</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>69</v>
       </c>
       <c r="H20" s="1">
         <v>10001</v>
       </c>
       <c r="I20">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>71</v>
       </c>
       <c r="Q20" t="s">
@@ -2207,26 +2226,111 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+    <row r="21" customFormat="1" spans="1:20">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1000102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>15011102</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I21">
+        <v>1002</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21">
+        <v>15003501</v>
+      </c>
+      <c r="T21">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:20">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1000103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>15011103</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10001</v>
+      </c>
+      <c r="I22">
+        <v>10001</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22">
+        <v>15003501</v>
+      </c>
+      <c r="T22">
+        <v>15003601</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
@@ -2235,13 +2339,13 @@
       <c r="B24">
         <v>1000501</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="C24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4">
         <v>0</v>
       </c>
       <c r="F24">
@@ -2256,17 +2360,16 @@
       <c r="I24">
         <v>10001</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="J24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>71</v>
       </c>
       <c r="Q24" t="s">
@@ -2286,13 +2389,13 @@
       <c r="B25">
         <v>1000502</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="4">
         <v>0</v>
       </c>
       <c r="F25">
@@ -2307,17 +2410,16 @@
       <c r="I25">
         <v>10001</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="J25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>71</v>
       </c>
       <c r="Q25" t="s">
@@ -2331,11 +2433,11 @@
       </c>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" customFormat="1" spans="1:20">
       <c r="A27" t="s">
@@ -2344,13 +2446,13 @@
       <c r="B27">
         <v>1000801</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="4">
         <v>0</v>
       </c>
       <c r="F27">
@@ -2365,17 +2467,17 @@
       <c r="I27">
         <v>10001</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="J27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>71</v>
       </c>
       <c r="Q27" t="s">
@@ -2388,13 +2490,16 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="3:11">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+    <row r="28" customFormat="1" spans="3:15">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="H28" s="1"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" customFormat="1" spans="1:20">
       <c r="A29" t="s">
@@ -2403,13 +2508,13 @@
       <c r="B29">
         <v>1080011</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="4">
         <v>0</v>
       </c>
       <c r="F29">
@@ -2424,15 +2529,15 @@
       <c r="I29">
         <v>10001</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="P29">
@@ -2455,13 +2560,13 @@
       <c r="B30">
         <v>1080012</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="C30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="4">
         <v>0</v>
       </c>
       <c r="F30">
@@ -2476,15 +2581,15 @@
       <c r="I30">
         <v>10001</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>71</v>
       </c>
       <c r="P30">
@@ -2507,13 +2612,13 @@
       <c r="B31">
         <v>1080013</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="C31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="4">
         <v>0</v>
       </c>
       <c r="F31">
@@ -2528,15 +2633,15 @@
       <c r="I31">
         <v>10001</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>71</v>
       </c>
       <c r="P31">
@@ -2559,13 +2664,13 @@
       <c r="B32">
         <v>1080014</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="C32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4">
         <v>0</v>
       </c>
       <c r="F32">
@@ -2580,15 +2685,15 @@
       <c r="I32">
         <v>10001</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>71</v>
       </c>
       <c r="P32">
@@ -2611,13 +2716,13 @@
       <c r="B33">
         <v>1080015</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="C33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="4">
         <v>0</v>
       </c>
       <c r="F33">
@@ -2632,15 +2737,15 @@
       <c r="I33">
         <v>10001</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>71</v>
       </c>
       <c r="P33">
@@ -2656,40 +2761,46 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="3:11">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+    <row r="34" customFormat="1" spans="3:15">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="H34" s="1"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" customFormat="1" spans="3:11">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" customFormat="1" spans="3:15">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="H35" s="1"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37">
         <v>1000001</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="C37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="F37">
@@ -2704,10 +2815,10 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" s="9"/>
+      <c r="J37" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="10"/>
       <c r="Q37" t="s">
         <v>47</v>
       </c>
@@ -2722,13 +2833,13 @@
       <c r="B38">
         <v>1000002</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38">
@@ -2744,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K38" s="2"/>
       <c r="Q38" t="s">
@@ -2761,13 +2872,13 @@
       <c r="B39">
         <v>1000003</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39">
@@ -2782,10 +2893,10 @@
       <c r="I39">
         <v>2</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" s="9"/>
+      <c r="J39" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" s="10"/>
       <c r="Q39" t="s">
         <v>47</v>
       </c>
@@ -2800,13 +2911,13 @@
       <c r="B40">
         <v>1000004</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40">
@@ -2822,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K40" s="2"/>
       <c r="Q40" t="s">
@@ -2843,9 +2954,9 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="3">
+        <v>97</v>
+      </c>
+      <c r="E41" s="4">
         <v>1</v>
       </c>
       <c r="F41">
@@ -2861,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K41" s="2"/>
       <c r="Q41" t="s">
@@ -2882,9 +2993,9 @@
         <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="3">
+        <v>98</v>
+      </c>
+      <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42">
@@ -2900,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K42" s="2"/>
       <c r="Q42" t="s">
@@ -2918,10 +3029,10 @@
         <v>1000101</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2939,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K44" s="2"/>
       <c r="Q44" t="s">
@@ -2957,10 +3068,10 @@
         <v>1000102</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2978,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K45" s="2"/>
       <c r="Q45" t="s">
@@ -2993,7 +3104,7 @@
     </row>
     <row r="46" spans="10:11">
       <c r="J46" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K46" s="2"/>
     </row>
@@ -3014,7 +3125,7 @@
         <v>15011032</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H47" s="1">
         <v>10001</v>
@@ -3023,16 +3134,16 @@
         <v>10001</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K47" s="2"/>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>71</v>
       </c>
       <c r="Q47" t="s">
@@ -3050,10 +3161,10 @@
         <v>1000202</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3062,7 +3173,7 @@
         <v>15011033</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H48" s="1">
         <v>10001</v>
@@ -3071,17 +3182,17 @@
         <v>10001</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="s">
-        <v>103</v>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="Q48" t="s">
         <v>47</v>
@@ -3098,10 +3209,10 @@
         <v>1000210</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3110,7 +3221,7 @@
         <v>15011034</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H49" s="1">
         <v>10001</v>
@@ -3119,17 +3230,17 @@
         <v>10001</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K49" s="2"/>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
-        <v>103</v>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="Q49" t="s">
         <v>47</v>
@@ -3146,25 +3257,25 @@
     </row>
     <row r="50" ht="12" customHeight="1" spans="10:11">
       <c r="J50" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="10:11">
-      <c r="J51" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51" s="9"/>
+      <c r="J51" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="10"/>
     </row>
     <row r="52" spans="2:20">
       <c r="B52">
         <v>1200001</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3181,17 +3292,17 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="J52" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="10"/>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q52" t="s">
@@ -3206,12 +3317,12 @@
     </row>
     <row r="53" spans="10:10">
       <c r="J53" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="10:10">
       <c r="J54" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="2:20">
@@ -3219,10 +3330,10 @@
         <v>1200021</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3239,19 +3350,19 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K55" s="9" t="s">
+      <c r="J55" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K55" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q55" t="s">
@@ -3265,17 +3376,17 @@
       </c>
     </row>
     <row r="56" spans="10:11">
-      <c r="J56" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K56" s="9"/>
+      <c r="J56" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" customFormat="1" spans="2:20">
       <c r="B57">
         <v>1200101</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
@@ -3287,7 +3398,7 @@
         <v>15011032</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H57" s="1">
         <v>10001</v>
@@ -3296,16 +3407,16 @@
         <v>101</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K57" s="2"/>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>71</v>
       </c>
       <c r="Q57" t="s">
@@ -3323,10 +3434,10 @@
         <v>1200102</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3335,7 +3446,7 @@
         <v>15011033</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H58" s="1">
         <v>10001</v>
@@ -3344,17 +3455,17 @@
         <v>101</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K58" s="2"/>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>103</v>
+      <c r="L58" s="3">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="Q58" t="s">
         <v>47</v>
@@ -3371,10 +3482,10 @@
         <v>1300101</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3383,7 +3494,7 @@
         <v>15011032</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H62" s="1">
         <v>10001</v>
@@ -3392,16 +3503,16 @@
         <v>10001</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K62" s="2"/>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>71</v>
       </c>
       <c r="Q62" t="s">
@@ -3414,21 +3525,24 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="7:11">
+    <row r="63" customFormat="1" spans="7:15">
       <c r="G63" s="2"/>
       <c r="H63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
+      <c r="L63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
     </row>
     <row r="64" customFormat="1" spans="2:20">
       <c r="B64">
         <v>1300102</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3437,7 +3551,7 @@
         <v>15011033</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H64" s="1">
         <v>10001</v>
@@ -3446,17 +3560,17 @@
         <v>10001</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K64" s="2"/>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64" t="s">
-        <v>103</v>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
+      <c r="N64" s="3">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="Q64" t="s">
         <v>47</v>
@@ -3485,7 +3599,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3502,7 +3616,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28580" windowHeight="15780"/>
+    <workbookView windowWidth="19320" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -276,7 +289,7 @@
     <t>20002</t>
   </si>
   <si>
-    <t>3101201</t>
+    <t>2102101</t>
   </si>
   <si>
     <t>boss</t>
@@ -444,7 +457,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -604,12 +617,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1456,14 +1469,14 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4460" ySplit="2880" topLeftCell="D1" activePane="bottomRight"/>
+      <pane xSplit="4460" ySplit="2880" topLeftCell="E3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1479,7 +1492,7 @@
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="9" style="3"/>
     <col min="15" max="15" width="11.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.1826923076923" customWidth="1"/>
+    <col min="16" max="16" width="16.1833333333333" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
     <col min="20" max="20" width="13.25" customWidth="1"/>
   </cols>
@@ -1608,7 +1621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="68" spans="1:20">
+    <row r="3" ht="54" spans="1:20">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3599,7 +3612,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3616,7 +3629,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19320" windowHeight="11700"/>
+    <workbookView windowWidth="17940" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>2003101,2003201,2103301</t>
+    <t>2003101,2003201</t>
   </si>
   <si>
     <t>2003301</t>
@@ -628,7 +628,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +966,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,16 +990,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1002,89 +1008,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,8 +1112,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1469,11 +1481,11 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4460" ySplit="2880" topLeftCell="E3" activePane="bottomRight"/>
+      <pane xSplit="4460" ySplit="2880" topLeftCell="J1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1649,7 +1661,7 @@
       <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -1687,22 +1699,22 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
@@ -1711,7 +1723,7 @@
       <c r="B7">
         <v>1000001</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1723,7 +1735,7 @@
       <c r="F7">
         <v>15011031</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>10001</v>
       </c>
       <c r="H7" s="1">
@@ -1732,10 +1744,10 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="3">
@@ -1767,7 +1779,7 @@
       <c r="B8">
         <v>1000002</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1779,7 +1791,7 @@
       <c r="F8">
         <v>15011032</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>10002</v>
       </c>
       <c r="H8" s="1">
@@ -1788,10 +1800,10 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="3">
@@ -1823,7 +1835,7 @@
       <c r="B9">
         <v>1000003</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
@@ -1835,7 +1847,7 @@
       <c r="F9">
         <v>15011033</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>10003</v>
       </c>
       <c r="H9" s="1">
@@ -1844,10 +1856,10 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="L9" s="3">
@@ -1891,7 +1903,7 @@
       <c r="F10">
         <v>15011034</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>10004</v>
       </c>
       <c r="H10" s="1">
@@ -1900,10 +1912,10 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="12" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="3">
@@ -1947,7 +1959,7 @@
       <c r="F11">
         <v>15011035</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>10005</v>
       </c>
       <c r="H11" s="1">
@@ -1956,10 +1968,10 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="12" t="s">
         <v>59</v>
       </c>
       <c r="L11" s="3">
@@ -2003,7 +2015,7 @@
       <c r="F12">
         <v>15011036</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>10006</v>
       </c>
       <c r="H12" s="1">
@@ -2012,10 +2024,10 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="12" t="s">
         <v>62</v>
       </c>
       <c r="L12" s="3">
@@ -2047,7 +2059,7 @@
       <c r="B13">
         <v>1000007</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2059,7 +2071,7 @@
       <c r="F13">
         <v>15011037</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>10007</v>
       </c>
       <c r="H13" s="1">
@@ -2068,10 +2080,10 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="12" t="s">
         <v>65</v>
       </c>
       <c r="L13" s="3">
@@ -2115,7 +2127,7 @@
       <c r="F14">
         <v>15011038</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>10006</v>
       </c>
       <c r="H14" s="1">
@@ -2124,10 +2136,10 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="12" t="s">
         <v>62</v>
       </c>
       <c r="L14" s="3">
@@ -2153,7 +2165,7 @@
       </c>
     </row>
     <row r="16" customFormat="1" spans="7:15">
-      <c r="G16" s="8"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2162,7 +2174,7 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" customFormat="1" spans="7:15">
-      <c r="G17" s="8"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2171,7 +2183,7 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" customFormat="1" spans="7:15">
-      <c r="G18" s="8"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2180,7 +2192,7 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" customFormat="1" spans="7:15">
-      <c r="G19" s="8"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2207,7 +2219,7 @@
       <c r="F20">
         <v>15011101</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>69</v>
       </c>
       <c r="H20" s="1">
@@ -2258,7 +2270,7 @@
       <c r="F21">
         <v>15011102</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="1">
@@ -2308,7 +2320,7 @@
       <c r="F22">
         <v>15011103</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>76</v>
       </c>
       <c r="H22" s="1">
@@ -2343,7 +2355,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
@@ -2373,7 +2385,7 @@
       <c r="I24">
         <v>10001</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="12" t="s">
         <v>79</v>
       </c>
       <c r="L24" s="3">
@@ -2423,7 +2435,7 @@
       <c r="I25">
         <v>10001</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="12" t="s">
         <v>81</v>
       </c>
       <c r="L25" s="3">
@@ -2449,8 +2461,8 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" customFormat="1" spans="1:20">
       <c r="A27" t="s">
@@ -2480,10 +2492,10 @@
       <c r="I27">
         <v>10001</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="3">
         <v>1</v>
       </c>
@@ -2508,8 +2520,8 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="H28" s="1"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2542,8 +2554,8 @@
       <c r="I29">
         <v>10001</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="3">
         <v>1</v>
       </c>
@@ -2594,8 +2606,8 @@
       <c r="I30">
         <v>10001</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="3">
         <v>1</v>
       </c>
@@ -2646,8 +2658,8 @@
       <c r="I31">
         <v>10001</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
       <c r="L31" s="3">
         <v>1</v>
       </c>
@@ -2698,8 +2710,8 @@
       <c r="I32">
         <v>10001</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="3">
         <v>1</v>
       </c>
@@ -2750,8 +2762,8 @@
       <c r="I33">
         <v>10001</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
       <c r="L33" s="3">
         <v>1</v>
       </c>
@@ -2779,8 +2791,8 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="H34" s="1"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2790,8 +2802,8 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="H35" s="1"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2800,8 +2812,8 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37">
@@ -2828,10 +2840,10 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="10"/>
+      <c r="K37" s="12"/>
       <c r="Q37" t="s">
         <v>47</v>
       </c>
@@ -2906,10 +2918,10 @@
       <c r="I39">
         <v>2</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="12"/>
       <c r="Q39" t="s">
         <v>47</v>
       </c>
@@ -3275,10 +3287,10 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="10:11">
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K51" s="10"/>
+      <c r="K51" s="12"/>
     </row>
     <row r="52" spans="2:20">
       <c r="B52">
@@ -3305,10 +3317,10 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K52" s="10"/>
+      <c r="K52" s="12"/>
       <c r="L52" s="3">
         <v>1</v>
       </c>
@@ -3363,10 +3375,10 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="12" t="s">
         <v>53</v>
       </c>
       <c r="L55" s="3">
@@ -3389,10 +3401,10 @@
       </c>
     </row>
     <row r="56" spans="10:11">
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K56" s="10"/>
+      <c r="K56" s="12"/>
     </row>
     <row r="57" customFormat="1" spans="2:20">
       <c r="B57">

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17940" windowHeight="11700"/>
+    <workbookView windowWidth="16440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>灰熊大黑 Lv1</t>
+  </si>
+  <si>
+    <t>2880101</t>
   </si>
   <si>
     <t>灰熊大黑 Lv2</t>
@@ -1481,11 +1484,11 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4460" ySplit="2880" topLeftCell="J1" activePane="bottomRight"/>
+      <pane xSplit="4460" ySplit="2880" topLeftCell="G1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2554,7 +2557,9 @@
       <c r="I29">
         <v>10001</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="K29" s="12"/>
       <c r="L29" s="3">
         <v>1</v>
@@ -2586,10 +2591,10 @@
         <v>1080012</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2606,7 +2611,9 @@
       <c r="I30">
         <v>10001</v>
       </c>
-      <c r="J30" s="12"/>
+      <c r="J30" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="K30" s="12"/>
       <c r="L30" s="3">
         <v>1</v>
@@ -2638,10 +2645,10 @@
         <v>1080013</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2658,7 +2665,9 @@
       <c r="I31">
         <v>10001</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="K31" s="12"/>
       <c r="L31" s="3">
         <v>1</v>
@@ -2690,10 +2699,10 @@
         <v>1080014</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -2710,7 +2719,9 @@
       <c r="I32">
         <v>10001</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="K32" s="12"/>
       <c r="L32" s="3">
         <v>1</v>
@@ -2742,10 +2753,10 @@
         <v>1080015</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -2762,7 +2773,9 @@
       <c r="I33">
         <v>10001</v>
       </c>
-      <c r="J33" s="12"/>
+      <c r="J33" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="K33" s="12"/>
       <c r="L33" s="3">
         <v>1</v>
@@ -2820,10 +2833,10 @@
         <v>1000001</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -2841,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" s="12"/>
       <c r="Q37" t="s">
@@ -2862,7 +2875,7 @@
         <v>48</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -2880,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" s="2"/>
       <c r="Q38" t="s">
@@ -2901,7 +2914,7 @@
         <v>51</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2919,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K39" s="12"/>
       <c r="Q39" t="s">
@@ -2940,7 +2953,7 @@
         <v>54</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -2958,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K40" s="2"/>
       <c r="Q40" t="s">
@@ -2979,7 +2992,7 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -2997,7 +3010,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41" s="2"/>
       <c r="Q41" t="s">
@@ -3018,7 +3031,7 @@
         <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -3036,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42" s="2"/>
       <c r="Q42" t="s">
@@ -3054,10 +3067,10 @@
         <v>1000101</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3075,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" s="2"/>
       <c r="Q44" t="s">
@@ -3093,10 +3106,10 @@
         <v>1000102</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3114,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" s="2"/>
       <c r="Q45" t="s">
@@ -3129,7 +3142,7 @@
     </row>
     <row r="46" spans="10:11">
       <c r="J46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K46" s="2"/>
     </row>
@@ -3150,7 +3163,7 @@
         <v>15011032</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H47" s="1">
         <v>10001</v>
@@ -3159,7 +3172,7 @@
         <v>10001</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="3">
@@ -3198,7 +3211,7 @@
         <v>15011033</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H48" s="1">
         <v>10001</v>
@@ -3207,7 +3220,7 @@
         <v>10001</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="3">
@@ -3217,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q48" t="s">
         <v>47</v>
@@ -3234,10 +3247,10 @@
         <v>1000210</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3246,7 +3259,7 @@
         <v>15011034</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H49" s="1">
         <v>10001</v>
@@ -3255,7 +3268,7 @@
         <v>10001</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="3">
@@ -3265,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q49" t="s">
         <v>47</v>
@@ -3282,13 +3295,13 @@
     </row>
     <row r="50" ht="12" customHeight="1" spans="10:11">
       <c r="J50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="10:11">
       <c r="J51" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K51" s="12"/>
     </row>
@@ -3297,10 +3310,10 @@
         <v>1200001</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3318,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="3">
@@ -3342,12 +3355,12 @@
     </row>
     <row r="53" spans="10:10">
       <c r="J53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="10:10">
       <c r="J54" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="2:20">
@@ -3355,10 +3368,10 @@
         <v>1200021</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3376,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>53</v>
@@ -3402,7 +3415,7 @@
     </row>
     <row r="56" spans="10:11">
       <c r="J56" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K56" s="12"/>
     </row>
@@ -3411,7 +3424,7 @@
         <v>1200101</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
@@ -3423,7 +3436,7 @@
         <v>15011032</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H57" s="1">
         <v>10001</v>
@@ -3432,7 +3445,7 @@
         <v>101</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="3">
@@ -3459,7 +3472,7 @@
         <v>1200102</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
         <v>72</v>
@@ -3471,7 +3484,7 @@
         <v>15011033</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H58" s="1">
         <v>10001</v>
@@ -3480,7 +3493,7 @@
         <v>101</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="3">
@@ -3490,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q58" t="s">
         <v>47</v>
@@ -3507,10 +3520,10 @@
         <v>1300101</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3519,7 +3532,7 @@
         <v>15011032</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H62" s="1">
         <v>10001</v>
@@ -3528,7 +3541,7 @@
         <v>10001</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="3">
@@ -3564,10 +3577,10 @@
         <v>1300102</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3576,7 +3589,7 @@
         <v>15011033</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H64" s="1">
         <v>10001</v>
@@ -3585,7 +3598,7 @@
         <v>10001</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="3">
@@ -3595,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q64" t="s">
         <v>47</v>

--- a/data_config/EntityInfo.xlsx
+++ b/data_config/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16440" windowHeight="11700"/>
+    <workbookView windowWidth="16020" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>94067</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="140">
   <si>
     <t>#</t>
   </si>
@@ -79,6 +79,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>describe2</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>战斗相关介绍</t>
+  </si>
+  <si>
     <t>类型(0 npc单位实例 , 1 英雄模板)</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>隐墨</t>
   </si>
   <si>
+    <t>近战，攻守兼备，能抗能打。</t>
+  </si>
+  <si>
     <t>2001101,2001201</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
     <t>凤紫夕</t>
   </si>
   <si>
+    <t>近战，刺客，对付残血有效。</t>
+  </si>
+  <si>
     <t>2002101,2002201</t>
   </si>
   <si>
@@ -223,6 +235,9 @@
     <t>唐依</t>
   </si>
   <si>
+    <t>远程，比较迅捷。</t>
+  </si>
+  <si>
     <t>2003101,2003201</t>
   </si>
   <si>
@@ -232,6 +247,9 @@
     <t>夜魂</t>
   </si>
   <si>
+    <t>近战，倾向防守的肉盾。</t>
+  </si>
+  <si>
     <t>2004101,2004201</t>
   </si>
   <si>
@@ -241,6 +259,9 @@
     <t>萧玉</t>
   </si>
   <si>
+    <t>远程，擅长辅助。</t>
+  </si>
+  <si>
     <t>2005101,2005201</t>
   </si>
   <si>
@@ -250,6 +271,9 @@
     <t>承灵</t>
   </si>
   <si>
+    <t>近战，可以进行召唤。</t>
+  </si>
+  <si>
     <t>2006101,2006201</t>
   </si>
   <si>
@@ -259,6 +283,9 @@
     <t>林清远</t>
   </si>
   <si>
+    <t>近战，擅长残血作战。</t>
+  </si>
+  <si>
     <t>2007101,2007201</t>
   </si>
   <si>
@@ -266,6 +293,9 @@
   </si>
   <si>
     <t>叶红衣</t>
+  </si>
+  <si>
+    <t>远程，群体招式。</t>
   </si>
   <si>
     <t>2006101,2005201</t>
@@ -620,12 +650,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1481,38 +1511,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4460" ySplit="2880" topLeftCell="G1" activePane="bottomRight"/>
+      <pane xSplit="4460" ySplit="2880" topLeftCell="A1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="47.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="9" style="3"/>
-    <col min="15" max="15" width="11.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.1833333333333" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
-    <col min="20" max="20" width="13.25" customWidth="1"/>
+    <col min="3" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="47.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="11.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.1833333333333" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1534,31 +1564,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -1573,153 +1603,165 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:20">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:21">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
       <c r="O3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
         <v>38</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="J4" s="12"/>
+      <c r="F4" s="4"/>
       <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="3:11">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="J5" s="12"/>
+      <c r="F5" s="4"/>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="3:11">
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="3:12">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="J6" s="12"/>
+      <c r="F6" s="4"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1727,55 +1769,58 @@
         <v>1000001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>15011031</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>10001</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>44</v>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="s">
         <v>47</v>
       </c>
-      <c r="S7">
+      <c r="L7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7">
         <v>15003503</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>15003603</v>
       </c>
     </row>
-    <row r="8" ht="12" customHeight="1" spans="1:20">
+    <row r="8" ht="12" customHeight="1" spans="1:21">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1783,55 +1828,58 @@
         <v>1000002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>15011032</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>10002</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="R8" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
         <v>15003503</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>15003603</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:20">
+    <row r="9" customFormat="1" spans="1:21">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1839,55 +1887,58 @@
         <v>1000003</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>15011033</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>10003</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>52</v>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9">
+        <v>57</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9">
         <v>15003503</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>15003603</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="10" customFormat="1" ht="15" customHeight="1" spans="1:21">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1895,55 +1946,58 @@
         <v>1000004</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10">
+        <v>59</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>15011034</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>10004</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>55</v>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S10">
+        <v>61</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10">
         <v>15003503</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>15003603</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:20">
+    <row r="11" customFormat="1" spans="1:21">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1951,55 +2005,58 @@
         <v>1000005</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>15011035</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>10005</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>58</v>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S11">
+        <v>65</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11">
         <v>15003503</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>15003603</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:21">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2007,55 +2064,58 @@
         <v>1000006</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>15011036</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>10006</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>61</v>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>47</v>
-      </c>
-      <c r="S12">
+        <v>69</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12">
         <v>15003503</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>15003603</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:21">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2063,55 +2123,58 @@
         <v>1000007</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>15011037</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>10007</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>64</v>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13">
+        <v>73</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13">
         <v>15003503</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>15003603</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:21">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2119,91 +2182,94 @@
         <v>1000008</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>15011038</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>10006</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>67</v>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14">
+        <v>77</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14">
         <v>15003503</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>15003603</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="7:15">
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="J16" s="2"/>
+    <row r="16" customFormat="1" spans="8:16">
+      <c r="H16" s="10"/>
+      <c r="I16" s="1"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" customFormat="1" spans="7:15">
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="J17" s="2"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" customFormat="1" spans="8:16">
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" customFormat="1" spans="7:15">
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="J18" s="2"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" customFormat="1" spans="8:16">
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
       <c r="O18" s="3"/>
-    </row>
-    <row r="19" customFormat="1" spans="7:15">
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="J19" s="2"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" customFormat="1" spans="8:16">
+      <c r="H19" s="10"/>
+      <c r="I19" s="1"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:20">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:21">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2211,50 +2277,50 @@
         <v>1000101</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>15011101</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="H20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="1">
         <v>10001</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1001</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>47</v>
-      </c>
-      <c r="S20">
+      <c r="K20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20">
         <v>15003501</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>15003601</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:20">
+    <row r="21" customFormat="1" spans="1:21">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2262,49 +2328,49 @@
         <v>1000102</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>15011102</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="H21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="1">
         <v>10001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1002</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21">
+      <c r="K21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21">
         <v>15003501</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>15003601</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:20">
+    <row r="22" customFormat="1" spans="1:21">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2312,55 +2378,56 @@
         <v>1000103</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>15011103</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="H22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="1">
         <v>10001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10001</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22">
+      <c r="K22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22">
         <v>15003501</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>15003601</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:11">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="F23" s="4"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2368,49 +2435,50 @@
         <v>1000501</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>15011104</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>20501</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>10001</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10001</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24">
+      <c r="K24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24">
         <v>15003501</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>15003601</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:20">
+    <row r="25" customFormat="1" spans="1:21">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2418,56 +2486,58 @@
         <v>1000502</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25">
+        <v>90</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>15011105</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>20502</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>10001</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>10001</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="K25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>47</v>
-      </c>
-      <c r="S25">
+      <c r="R25" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25">
         <v>15003501</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>15003601</v>
       </c>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="3:12">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="J26" s="12"/>
+      <c r="F26" s="4"/>
       <c r="K26" s="12"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:20">
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:21">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2475,61 +2545,63 @@
         <v>1000801</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27">
+        <v>92</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>15011104</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>20801</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>10001</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>10001</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>47</v>
-      </c>
-      <c r="S27">
+      <c r="K27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R27" t="s">
+        <v>50</v>
+      </c>
+      <c r="T27">
         <v>15003501</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>15003601</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="3:15">
+    <row r="28" customFormat="1" spans="3:16">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="H28" s="1"/>
-      <c r="J28" s="12"/>
+      <c r="F28" s="4"/>
+      <c r="I28" s="1"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="3"/>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:20">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:21">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2537,53 +2609,54 @@
         <v>1080011</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29">
+        <v>94</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>15011104</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>28011</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>10001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>10001</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29">
+      <c r="K29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29">
         <v>1080011</v>
       </c>
-      <c r="Q29" t="s">
-        <v>47</v>
-      </c>
-      <c r="S29">
+      <c r="R29" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29">
         <v>15003501</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>15003601</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:20">
+    <row r="30" customFormat="1" spans="1:21">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2591,53 +2664,54 @@
         <v>1080012</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30">
+        <v>96</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>15011104</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>28012</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>10001</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>10001</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P30">
+      <c r="K30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30">
         <v>1080011</v>
       </c>
-      <c r="Q30" t="s">
-        <v>47</v>
-      </c>
-      <c r="S30">
+      <c r="R30" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30">
         <v>15003501</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>15003601</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:20">
+    <row r="31" customFormat="1" spans="1:21">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2645,53 +2719,54 @@
         <v>1080013</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31">
+        <v>97</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>15011104</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>28013</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>10001</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>10001</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P31">
+      <c r="K31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31">
         <v>1080011</v>
       </c>
-      <c r="Q31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S31">
+      <c r="R31" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31">
         <v>15003501</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>15003601</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:20">
+    <row r="32" customFormat="1" spans="1:21">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2699,53 +2774,54 @@
         <v>1080014</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32">
+        <v>98</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>15011104</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>28014</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>10001</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>10001</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P32">
+      <c r="K32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32">
         <v>1080011</v>
       </c>
-      <c r="Q32" t="s">
-        <v>47</v>
-      </c>
-      <c r="S32">
+      <c r="R32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32">
         <v>15003501</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>15003601</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:20">
+    <row r="33" customFormat="1" spans="1:21">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2753,870 +2829,878 @@
         <v>1080015</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33">
+        <v>99</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>15011104</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>28015</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>10001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>10001</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P33">
+      <c r="K33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q33">
         <v>1080011</v>
       </c>
-      <c r="Q33" t="s">
-        <v>47</v>
-      </c>
-      <c r="S33">
+      <c r="R33" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33">
         <v>15003501</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>15003601</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="3:15">
+    <row r="34" customFormat="1" spans="3:16">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="H34" s="1"/>
-      <c r="J34" s="12"/>
+      <c r="F34" s="4"/>
+      <c r="I34" s="1"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="3"/>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" customFormat="1" spans="3:15">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" customFormat="1" spans="3:16">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="H35" s="1"/>
-      <c r="J35" s="12"/>
+      <c r="F35" s="4"/>
+      <c r="I35" s="1"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="3"/>
       <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="3:11">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="3:12">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="J36" s="12"/>
+      <c r="F36" s="4"/>
       <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37">
         <v>1000001</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37">
+        <v>101</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>15011030</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>10001001</v>
       </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="Q37" t="s">
-        <v>47</v>
-      </c>
-      <c r="S37">
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="R37" t="s">
+        <v>50</v>
+      </c>
+      <c r="T37">
         <v>15003501</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>15003603</v>
       </c>
     </row>
-    <row r="38" spans="2:20">
+    <row r="38" spans="2:21">
       <c r="B38">
         <v>1000002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38">
+        <v>103</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>15011001</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>10001002</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>2</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="Q38" t="s">
-        <v>47</v>
-      </c>
-      <c r="S38">
+      <c r="K38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="R38" t="s">
+        <v>50</v>
+      </c>
+      <c r="T38">
         <v>15003503</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>15003601</v>
       </c>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:21">
       <c r="B39">
         <v>1000003</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>15011031</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>10001003</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>2</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>2</v>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K39" s="12"/>
-      <c r="Q39" t="s">
-        <v>47</v>
-      </c>
-      <c r="S39">
+      <c r="K39" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="R39" t="s">
+        <v>50</v>
+      </c>
+      <c r="T39">
         <v>15003503</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>15003602</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="2:20">
+    <row r="40" ht="15" customHeight="1" spans="2:21">
       <c r="B40">
         <v>1000004</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40">
+        <v>107</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>15011001</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>10001002</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>2</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>2</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="Q40" t="s">
-        <v>47</v>
-      </c>
-      <c r="S40">
+      <c r="K40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="R40" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40">
         <v>15003503</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>15003603</v>
       </c>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:21">
       <c r="B41">
         <v>1000005</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41">
+        <v>108</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>15011001</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>10001002</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="Q41" t="s">
-        <v>47</v>
-      </c>
-      <c r="S41">
+      <c r="K41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="R41" t="s">
+        <v>50</v>
+      </c>
+      <c r="T41">
         <v>15003503</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>15003601</v>
       </c>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:21">
       <c r="B42">
         <v>1000006</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42">
+        <v>109</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>15011001</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>10001002</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>2</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="Q42" t="s">
-        <v>47</v>
-      </c>
-      <c r="S42">
+      <c r="K42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="R42" t="s">
+        <v>50</v>
+      </c>
+      <c r="T42">
         <v>15003503</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>15003602</v>
       </c>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:21">
       <c r="B44">
         <v>1000101</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>15011001</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>10001002</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>2</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="Q44" t="s">
-        <v>47</v>
-      </c>
-      <c r="S44">
+      <c r="K44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="R44" t="s">
+        <v>50</v>
+      </c>
+      <c r="T44">
         <v>15003501</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>15003601</v>
       </c>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:21">
       <c r="B45">
         <v>1000102</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>15011001</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>10001002</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>2</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>2</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="Q45" t="s">
-        <v>47</v>
-      </c>
-      <c r="S45">
+      <c r="K45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="R45" t="s">
+        <v>50</v>
+      </c>
+      <c r="T45">
         <v>15003503</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>15003602</v>
       </c>
     </row>
-    <row r="46" spans="10:11">
-      <c r="J46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="2:20">
+    <row r="46" spans="11:12">
+      <c r="K46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="2:21">
       <c r="B47">
         <v>1000201</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>15011032</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="1">
         <v>10001</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>10001</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>47</v>
-      </c>
-      <c r="S47">
+      <c r="K47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R47" t="s">
+        <v>50</v>
+      </c>
+      <c r="T47">
         <v>15003501</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>15003601</v>
       </c>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:21">
       <c r="B48">
         <v>1000202</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>15011033</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="1">
         <v>10001</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>10001</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="3">
-        <v>1</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>47</v>
-      </c>
-      <c r="S48">
+      <c r="K48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R48" t="s">
+        <v>50</v>
+      </c>
+      <c r="T48">
         <v>15003501</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>15003602</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:21">
       <c r="B49">
         <v>1000210</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>15011034</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="1">
         <v>10001</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>10001</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>47</v>
-      </c>
-      <c r="R49">
-        <v>1</v>
+      <c r="K49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R49" t="s">
+        <v>50</v>
       </c>
       <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
         <v>15003501</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>15003601</v>
       </c>
     </row>
-    <row r="50" ht="12" customHeight="1" spans="10:11">
-      <c r="J50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="10:11">
-      <c r="J51" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="2:20">
+    <row r="50" ht="12" customHeight="1" spans="11:12">
+      <c r="K50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="11:12">
+      <c r="K51" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="2:21">
       <c r="B52">
         <v>1200001</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>15011030</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>10001001</v>
       </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>47</v>
-      </c>
-      <c r="S52">
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L52" s="12"/>
+      <c r="M52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" t="s">
+        <v>50</v>
+      </c>
+      <c r="T52">
         <v>15003501</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>15003601</v>
       </c>
     </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20">
+    <row r="53" spans="11:11">
+      <c r="K53" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
       <c r="B55">
         <v>1200021</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>15011031</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>10001003</v>
       </c>
-      <c r="H55" s="1">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>120</v>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L55" s="3">
-        <v>1</v>
-      </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>47</v>
-      </c>
-      <c r="S55">
+        <v>130</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R55" t="s">
+        <v>50</v>
+      </c>
+      <c r="T55">
         <v>15003503</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>15003603</v>
       </c>
     </row>
-    <row r="56" spans="10:11">
-      <c r="J56" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" customFormat="1" spans="2:20">
+    <row r="56" spans="11:12">
+      <c r="K56" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" customFormat="1" spans="2:21">
       <c r="B57">
         <v>1200101</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>15011032</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H57" s="1">
+      <c r="H57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" s="1">
         <v>10001</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>101</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="3">
-        <v>1</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>47</v>
-      </c>
-      <c r="S57">
+      <c r="K57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R57" t="s">
+        <v>50</v>
+      </c>
+      <c r="T57">
         <v>15003501</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>15003601</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="2:20">
+    <row r="58" customFormat="1" spans="2:21">
       <c r="B58">
         <v>1200102</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>15011033</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="1">
+      <c r="H58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I58" s="1">
         <v>10001</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>101</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="3">
-        <v>1</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>47</v>
-      </c>
-      <c r="S58">
+      <c r="K58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R58" t="s">
+        <v>50</v>
+      </c>
+      <c r="T58">
         <v>15003501</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>15003602</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="2:20">
+    <row r="62" customFormat="1" spans="2:21">
       <c r="B62">
         <v>1300101</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>15011032</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" s="1">
+      <c r="H62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="1">
         <v>10001</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>10001</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="3">
-        <v>1</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>47</v>
-      </c>
-      <c r="S62">
+      <c r="K62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R62" t="s">
+        <v>50</v>
+      </c>
+      <c r="T62">
         <v>15003501</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>15003601</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="7:15">
-      <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
-      <c r="J63" s="2"/>
+    <row r="63" customFormat="1" spans="8:16">
+      <c r="H63" s="2"/>
+      <c r="I63" s="1"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="3"/>
       <c r="O63" s="3"/>
-    </row>
-    <row r="64" customFormat="1" spans="2:20">
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" customFormat="1" spans="2:21">
       <c r="B64">
         <v>1300102</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>15011033</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H64" s="1">
+      <c r="H64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="1">
         <v>10001</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>10001</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-      <c r="N64" s="3">
-        <v>1</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>47</v>
-      </c>
-      <c r="S64">
+      <c r="K64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="3">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3">
+        <v>1</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R64" t="s">
+        <v>50</v>
+      </c>
+      <c r="T64">
         <v>15003501</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>15003602</v>
       </c>
     </row>
